--- a/data/senate.xlsx
+++ b/data/senate.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2424" uniqueCount="1121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2424" uniqueCount="1134">
   <si>
     <t>state</t>
   </si>
@@ -458,9 +458,6 @@
     <t>Dianne Feinstein, a Senator from California; born in San Francisco, Calif., June 22, 1933; attended the San Francisco public schools and graduated from the Convent of the Sacred Heart High School 1951; graduated, Stanford University 1955; Member, California Women's Board of Terms and Parole 1960-1966; Member, San Francisco Board of Supervisors 1970-1978, serving as president 1970-1971, 1974-1975, 1978; mayor of San Francisco 1978-1988; director, Bank of California 1988-1989; co-chair, San Francisco Education Fund's Permanent Fund 1988-1989; unsuccessful candidate for Governor of California 1990; elected in a special election on November 3, 1992, as a Democrat to the United States Senate to fill the term left vacant by the resignation of Pete Wilson; took office on November 4, 1992, and took the oath of office on November 10, 1992; reelected in 1994, 2000, 2006, and again in 2012 for the term ending January 3, 2019; chair, Committee on Rules and Administration (One Hundred Tenth Congress), Select Committee on Intelligence (One Hundred Eleventh to One Hundred Thirteenth Congresses).</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>asian-american</t>
   </si>
   <si>
@@ -3390,6 +3387,48 @@
   </si>
   <si>
     <t>https://twitter.com/SenToddYoung</t>
+  </si>
+  <si>
+    <t>H001075</t>
+  </si>
+  <si>
+    <t>Kamala Harris, a Senator from California; born in Oakland, Calif., October 20, 1964; B.A., Howard University, 1986; J.D., University of California, Hastings College of the Law, 1989; admitted to the California bar in 1990; deputy district attorney, Alameda County, Calif., 1990-1998; managing attorney, San Francisco District Attorney’s Office; chief of the San Francisco City Attorney’s Division on Children and Families; district attorney of San Francisco 2004-2011; attorney general of California 2011-2016; elected as a Democrat to the United States Senate in 2016 for the term ending January 3, 2023.</t>
+  </si>
+  <si>
+    <t>Tammy Duckworth, a Senator and a Representative from Illinois; born in Bangkok, Thailand, March 12, 1968; graduated from President William McKinley High School, Honolulu, Hawaii, 1985; B.A., University of Hawaii, Manoa, Hawaii, 1989; M.A., The George Washington University, Washington, D.C., 1992; attended Northern Illinois University, DeKalb, Ill.; Illinois Army National Guard, 1996-present; unsuccessful candidate for election to the United States House of Representatives in 2006; director, Ill. department of veterans' affairs, 2006-2009; assistant secretary, United States Department of Veterans' Affairs, 2009-2011; delegate to the Democratic National Convention, 2012; elected as a Democrat to the One Hundred Thirteenth Congress and to the succeeding Congress (January 3, 2013-January 3, 2017); was not a candidate for reelection to the House of Representatives but was elected as a Democrat to the United States Senate in 2016 for the term ending January 3, 2023.</t>
+  </si>
+  <si>
+    <t>Todd Young, a Senator and a Representative from Indiana; born in Lancaster, Lancaster County, Pa., August 24, 1972; graduated from Carmel High School, Carmel, Ind., 1990; B.S., United States Naval Academy, Annapolis, Md., 1995; M.B.A., University of Chicago, Chicago, Ill., 2000; M.A., University of London, London, England, 2001; J.D., Robert H. McKinney School of Law, Indiana University, Indianapolis, Ind., 2006; United States Navy, 1990-1991; United States Marine Corps, 1995-2000; staff, United States Senator Richard Lugar of Indiana, 2001-2003; Orange County, Ind., deputy prosecutor, 2007-2010; consultant; lawyer, private practice; elected as a Republican to the One Hundred Twelfth and to the two succeeding Congresses (January 3, 2011-January 3, 2017); was not a candidate for reelection to the House of Representatives but was elected as a Republican to the United States Senate in 2016 for the term ending January 3, 2023.</t>
+  </si>
+  <si>
+    <t>Y000064</t>
+  </si>
+  <si>
+    <t>D000622</t>
+  </si>
+  <si>
+    <t>K000393</t>
+  </si>
+  <si>
+    <t>John Kennedy, a Senator from Louisiana; born in Centreville, Miss., November 21, 1951; B.A., Vanderbilt University, 1973; J.D., University of Virginia School of Law, 1977; B.C.L., Oxford University, Oxford, England, 1979; lawyer; special counsel to Louisiana Governor Buddy Roemer; secretary to Governor Roemer's Cabinet; Secretary of the state Department of Revenue in the Cabinet of Louisiana Governor Mike Foster 1996-1999; Louisiana state Treasurer 1999-2016; elected as a Republican to the United States Senate in 2016 for the term ending January 3, 2023.</t>
+  </si>
+  <si>
+    <t>V000128</t>
+  </si>
+  <si>
+    <t>Christopher Van Hollen, a Senator and a Representative from Maryland; born in Karachi, Pakistan, January 10, 1959; B.A., Swarthmore College, Swarthmore, Pa., 1982; M.P.P., Harvard University, Cambridge, Mass., 1985; J.D., Georgetown University, Washington, D.C., 1990; lawyer, private practice; member of the Maryland state house of representatives, 1990-1994; member of the Maryland state senate, 1994-2002; elected as a Democrat to the One Hundred Eighth and to the six succeeding Congresses (January 3, 2003-January 3, 2017); was not a candidate for reelection to the House of Representatives but was elected as a Democrat to the United States Senate in 2016 for the term ending January 3, 2023.</t>
+  </si>
+  <si>
+    <t>H001076</t>
+  </si>
+  <si>
+    <t>Maggie Hassan, a Senator from New Hampshire; born in Boston, Mass., February 27, 1958; B.A., Brown University, 1980; J.D., Northeastern University School of Law, 1985; lawyer; member of the New Hampshire Advisory Committee to the Adequacy in Education and Finance Commission; member of the New Hampshire state Senate 2005-2010, serving as majority leader 2008-2010; governor of New Hampshire 2013-2016; elected as a Democrat to the United States Senate in 2016 for the term ending January 3, 2023.</t>
+  </si>
+  <si>
+    <t>C001113</t>
+  </si>
+  <si>
+    <t>Catherine Cortez Masto, a Senator from Nevada; born in Las Vegas, Nev., March 29, 1964; B.A., University of Nevada, 1986; J.D., Gonzaga University School of Law, 1990; admitted to the Nevada bar in 1990; assistant county manager, Clark County, Nev.; chief of staff to Nevada Governor Bob Miller; federal prosecutor; attorney general of Nevada 2007-2015; executive vice chancellor for the Nevada System of Higher Education; elected as a Democrat to the United States Senate in 2016 for the term ending January 3, 2023.</t>
   </si>
 </sst>
 </file>
@@ -3765,7 +3804,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="K55" workbookViewId="0">
+      <selection activeCell="X67" sqref="X67"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -4514,7 +4555,7 @@
         <v>130</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>1120</v>
       </c>
       <c r="C11" t="s">
         <v>132</v>
@@ -4541,16 +4582,16 @@
         <v>47</v>
       </c>
       <c r="K11" t="s">
+        <v>143</v>
+      </c>
+      <c r="L11" t="s">
         <v>144</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>145</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>146</v>
-      </c>
-      <c r="N11" t="s">
-        <v>147</v>
       </c>
       <c r="O11" t="s">
         <v>51</v>
@@ -4562,33 +4603,33 @@
         <v>37</v>
       </c>
       <c r="R11" t="s">
+        <v>147</v>
+      </c>
+      <c r="S11" t="s">
         <v>148</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>149</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>150</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>151</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>152</v>
       </c>
-      <c r="W11" t="s">
-        <v>153</v>
-      </c>
       <c r="X11" t="s">
-        <v>143</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" t="s">
         <v>154</v>
-      </c>
-      <c r="B12" t="s">
-        <v>155</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
@@ -4618,10 +4659,10 @@
         <v>31</v>
       </c>
       <c r="L12" t="s">
+        <v>155</v>
+      </c>
+      <c r="M12" t="s">
         <v>156</v>
-      </c>
-      <c r="M12" t="s">
-        <v>157</v>
       </c>
       <c r="N12" t="s">
         <v>34</v>
@@ -4636,33 +4677,33 @@
         <v>65</v>
       </c>
       <c r="R12" t="s">
+        <v>157</v>
+      </c>
+      <c r="S12" t="s">
         <v>158</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>159</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>160</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>161</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>162</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>163</v>
-      </c>
-      <c r="X12" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C13" t="s">
         <v>132</v>
@@ -4692,13 +4733,13 @@
         <v>31</v>
       </c>
       <c r="L13" t="s">
+        <v>165</v>
+      </c>
+      <c r="M13" t="s">
         <v>166</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>167</v>
-      </c>
-      <c r="N13" t="s">
-        <v>168</v>
       </c>
       <c r="O13" t="s">
         <v>51</v>
@@ -4710,33 +4751,33 @@
         <v>65</v>
       </c>
       <c r="R13" t="s">
+        <v>168</v>
+      </c>
+      <c r="S13" t="s">
         <v>169</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>170</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>171</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>172</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>173</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>174</v>
-      </c>
-      <c r="X13" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14" t="s">
         <v>176</v>
-      </c>
-      <c r="B14" t="s">
-        <v>177</v>
       </c>
       <c r="C14" t="s">
         <v>132</v>
@@ -4766,10 +4807,10 @@
         <v>31</v>
       </c>
       <c r="L14" t="s">
+        <v>177</v>
+      </c>
+      <c r="M14" t="s">
         <v>178</v>
-      </c>
-      <c r="M14" t="s">
-        <v>179</v>
       </c>
       <c r="N14" t="s">
         <v>111</v>
@@ -4784,33 +4825,33 @@
         <v>37</v>
       </c>
       <c r="R14" t="s">
+        <v>179</v>
+      </c>
+      <c r="S14" t="s">
         <v>180</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>181</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>182</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>183</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>184</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>185</v>
-      </c>
-      <c r="X14" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" t="s">
         <v>132</v>
@@ -4840,13 +4881,13 @@
         <v>31</v>
       </c>
       <c r="L15" t="s">
+        <v>187</v>
+      </c>
+      <c r="M15" t="s">
         <v>188</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>189</v>
-      </c>
-      <c r="N15" t="s">
-        <v>190</v>
       </c>
       <c r="O15" t="s">
         <v>51</v>
@@ -4858,33 +4899,33 @@
         <v>37</v>
       </c>
       <c r="R15" t="s">
+        <v>190</v>
+      </c>
+      <c r="S15" t="s">
         <v>191</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>192</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>193</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>194</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>195</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>196</v>
-      </c>
-      <c r="X15" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B16" t="s">
         <v>198</v>
-      </c>
-      <c r="B16" t="s">
-        <v>199</v>
       </c>
       <c r="C16" t="s">
         <v>132</v>
@@ -4914,13 +4955,13 @@
         <v>31</v>
       </c>
       <c r="L16" t="s">
+        <v>199</v>
+      </c>
+      <c r="M16" t="s">
         <v>200</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>201</v>
-      </c>
-      <c r="N16" t="s">
-        <v>202</v>
       </c>
       <c r="O16" t="s">
         <v>112</v>
@@ -4932,33 +4973,33 @@
         <v>37</v>
       </c>
       <c r="R16" t="s">
+        <v>202</v>
+      </c>
+      <c r="S16" t="s">
         <v>203</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>204</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>205</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>206</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>207</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>208</v>
-      </c>
-      <c r="X16" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C17" t="s">
         <v>132</v>
@@ -4988,13 +5029,13 @@
         <v>31</v>
       </c>
       <c r="L17" t="s">
+        <v>210</v>
+      </c>
+      <c r="M17" t="s">
         <v>211</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>212</v>
-      </c>
-      <c r="N17" t="s">
-        <v>213</v>
       </c>
       <c r="O17" t="s">
         <v>35</v>
@@ -5006,33 +5047,33 @@
         <v>65</v>
       </c>
       <c r="R17" t="s">
+        <v>213</v>
+      </c>
+      <c r="S17" t="s">
         <v>214</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>215</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>216</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>217</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>218</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>219</v>
-      </c>
-      <c r="X17" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B18" t="s">
         <v>221</v>
-      </c>
-      <c r="B18" t="s">
-        <v>222</v>
       </c>
       <c r="C18" t="s">
         <v>132</v>
@@ -5062,13 +5103,13 @@
         <v>31</v>
       </c>
       <c r="L18" t="s">
+        <v>222</v>
+      </c>
+      <c r="M18" t="s">
         <v>223</v>
       </c>
-      <c r="M18" t="s">
-        <v>224</v>
-      </c>
       <c r="N18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O18" t="s">
         <v>112</v>
@@ -5080,33 +5121,33 @@
         <v>37</v>
       </c>
       <c r="R18" t="s">
+        <v>224</v>
+      </c>
+      <c r="S18" t="s">
         <v>225</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" t="s">
         <v>226</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
         <v>227</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>228</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>229</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>230</v>
-      </c>
-      <c r="X18" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -5133,13 +5174,13 @@
         <v>30</v>
       </c>
       <c r="K19" t="s">
+        <v>232</v>
+      </c>
+      <c r="L19" t="s">
         <v>233</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>234</v>
-      </c>
-      <c r="M19" t="s">
-        <v>235</v>
       </c>
       <c r="N19" t="s">
         <v>98</v>
@@ -5154,33 +5195,33 @@
         <v>65</v>
       </c>
       <c r="R19" t="s">
+        <v>235</v>
+      </c>
+      <c r="S19" t="s">
         <v>236</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
         <v>237</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>238</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>239</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>240</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>241</v>
-      </c>
-      <c r="X19" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>242</v>
+      </c>
+      <c r="B20" t="s">
         <v>243</v>
-      </c>
-      <c r="B20" t="s">
-        <v>244</v>
       </c>
       <c r="C20" t="s">
         <v>26</v>
@@ -5210,10 +5251,10 @@
         <v>31</v>
       </c>
       <c r="L20" t="s">
+        <v>244</v>
+      </c>
+      <c r="M20" t="s">
         <v>245</v>
-      </c>
-      <c r="M20" t="s">
-        <v>246</v>
       </c>
       <c r="N20" t="s">
         <v>34</v>
@@ -5228,33 +5269,33 @@
         <v>65</v>
       </c>
       <c r="R20" t="s">
+        <v>246</v>
+      </c>
+      <c r="S20" t="s">
         <v>247</v>
       </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
         <v>248</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>249</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>250</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>251</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>252</v>
-      </c>
-      <c r="X20" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
@@ -5284,13 +5325,13 @@
         <v>31</v>
       </c>
       <c r="L21" t="s">
+        <v>254</v>
+      </c>
+      <c r="M21" t="s">
         <v>255</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>256</v>
-      </c>
-      <c r="N21" t="s">
-        <v>257</v>
       </c>
       <c r="O21" t="s">
         <v>51</v>
@@ -5302,33 +5343,33 @@
         <v>65</v>
       </c>
       <c r="R21" t="s">
+        <v>257</v>
+      </c>
+      <c r="S21" t="s">
         <v>258</v>
       </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
         <v>259</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>260</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>261</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>262</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>263</v>
-      </c>
-      <c r="X21" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>264</v>
+      </c>
+      <c r="B22" t="s">
         <v>265</v>
-      </c>
-      <c r="B22" t="s">
-        <v>266</v>
       </c>
       <c r="C22" t="s">
         <v>132</v>
@@ -5355,13 +5396,13 @@
         <v>47</v>
       </c>
       <c r="K22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L22" t="s">
+        <v>266</v>
+      </c>
+      <c r="M22" t="s">
         <v>267</v>
-      </c>
-      <c r="M22" t="s">
-        <v>268</v>
       </c>
       <c r="N22" t="s">
         <v>111</v>
@@ -5376,33 +5417,33 @@
         <v>37</v>
       </c>
       <c r="R22" t="s">
+        <v>268</v>
+      </c>
+      <c r="S22" t="s">
         <v>269</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
         <v>270</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>271</v>
       </c>
-      <c r="U22" t="s">
+      <c r="V22" t="s">
         <v>272</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>273</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>274</v>
-      </c>
-      <c r="X22" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C23" t="s">
         <v>132</v>
@@ -5432,13 +5473,13 @@
         <v>31</v>
       </c>
       <c r="L23" t="s">
+        <v>276</v>
+      </c>
+      <c r="M23" t="s">
         <v>277</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>278</v>
-      </c>
-      <c r="N23" t="s">
-        <v>279</v>
       </c>
       <c r="O23" t="s">
         <v>51</v>
@@ -5450,33 +5491,33 @@
         <v>37</v>
       </c>
       <c r="R23" t="s">
+        <v>279</v>
+      </c>
+      <c r="S23" t="s">
         <v>280</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
         <v>281</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>282</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>283</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>284</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>285</v>
-      </c>
-      <c r="X23" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>286</v>
+      </c>
+      <c r="B24" t="s">
         <v>287</v>
-      </c>
-      <c r="B24" t="s">
-        <v>288</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
@@ -5506,10 +5547,10 @@
         <v>31</v>
       </c>
       <c r="L24" t="s">
+        <v>288</v>
+      </c>
+      <c r="M24" t="s">
         <v>289</v>
-      </c>
-      <c r="M24" t="s">
-        <v>290</v>
       </c>
       <c r="N24" t="s">
         <v>34</v>
@@ -5524,33 +5565,33 @@
         <v>65</v>
       </c>
       <c r="R24" t="s">
+        <v>290</v>
+      </c>
+      <c r="S24" t="s">
         <v>291</v>
       </c>
-      <c r="S24" t="s">
+      <c r="T24" t="s">
         <v>292</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
         <v>293</v>
       </c>
-      <c r="U24" t="s">
+      <c r="V24" t="s">
         <v>294</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>295</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>296</v>
-      </c>
-      <c r="X24" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
@@ -5580,13 +5621,13 @@
         <v>31</v>
       </c>
       <c r="L25" t="s">
+        <v>298</v>
+      </c>
+      <c r="M25" t="s">
         <v>299</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>300</v>
-      </c>
-      <c r="N25" t="s">
-        <v>301</v>
       </c>
       <c r="O25" t="s">
         <v>51</v>
@@ -5598,33 +5639,33 @@
         <v>37</v>
       </c>
       <c r="R25" t="s">
+        <v>301</v>
+      </c>
+      <c r="S25" t="s">
         <v>302</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
         <v>303</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" t="s">
         <v>304</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>305</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>306</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>307</v>
-      </c>
-      <c r="X25" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>308</v>
+      </c>
+      <c r="B26" t="s">
         <v>309</v>
-      </c>
-      <c r="B26" t="s">
-        <v>310</v>
       </c>
       <c r="C26" t="s">
         <v>26</v>
@@ -5654,13 +5695,13 @@
         <v>31</v>
       </c>
       <c r="L26" t="s">
+        <v>310</v>
+      </c>
+      <c r="M26" t="s">
         <v>311</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>312</v>
-      </c>
-      <c r="N26" t="s">
-        <v>313</v>
       </c>
       <c r="O26" t="s">
         <v>35</v>
@@ -5672,33 +5713,33 @@
         <v>65</v>
       </c>
       <c r="R26" t="s">
+        <v>313</v>
+      </c>
+      <c r="S26" t="s">
         <v>314</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
         <v>315</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
         <v>316</v>
       </c>
-      <c r="U26" t="s">
+      <c r="V26" t="s">
         <v>317</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>318</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>319</v>
-      </c>
-      <c r="X26" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C27" t="s">
         <v>26</v>
@@ -5728,51 +5769,51 @@
         <v>31</v>
       </c>
       <c r="L27" t="s">
+        <v>321</v>
+      </c>
+      <c r="M27" t="s">
         <v>322</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>323</v>
-      </c>
-      <c r="N27" t="s">
-        <v>324</v>
       </c>
       <c r="O27" t="s">
         <v>51</v>
       </c>
       <c r="P27" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q27" t="s">
         <v>325</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="R27" t="s">
         <v>326</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>327</v>
       </c>
-      <c r="S27" t="s">
+      <c r="T27" t="s">
         <v>328</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
         <v>329</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>330</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>331</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>332</v>
-      </c>
-      <c r="X27" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>333</v>
+      </c>
+      <c r="B28" t="s">
         <v>334</v>
-      </c>
-      <c r="B28" t="s">
-        <v>335</v>
       </c>
       <c r="C28" t="s">
         <v>132</v>
@@ -5790,7 +5831,7 @@
         <v>28</v>
       </c>
       <c r="H28" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I28" t="s">
         <v>29</v>
@@ -5802,10 +5843,10 @@
         <v>31</v>
       </c>
       <c r="L28" t="s">
+        <v>336</v>
+      </c>
+      <c r="M28" t="s">
         <v>337</v>
-      </c>
-      <c r="M28" t="s">
-        <v>338</v>
       </c>
       <c r="N28" t="s">
         <v>63</v>
@@ -5820,33 +5861,33 @@
         <v>37</v>
       </c>
       <c r="R28" t="s">
+        <v>338</v>
+      </c>
+      <c r="S28" t="s">
         <v>339</v>
       </c>
-      <c r="S28" t="s">
+      <c r="T28" t="s">
         <v>340</v>
       </c>
-      <c r="T28" t="s">
+      <c r="U28" t="s">
         <v>341</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>342</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>343</v>
       </c>
-      <c r="W28" t="s">
+      <c r="X28" t="s">
         <v>344</v>
-      </c>
-      <c r="X28" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B29" t="s">
-        <v>143</v>
+        <v>1125</v>
       </c>
       <c r="C29" t="s">
         <v>132</v>
@@ -5873,16 +5914,16 @@
         <v>47</v>
       </c>
       <c r="K29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L29" t="s">
+        <v>345</v>
+      </c>
+      <c r="M29" t="s">
         <v>346</v>
       </c>
-      <c r="M29" t="s">
-        <v>347</v>
-      </c>
       <c r="N29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O29" t="s">
         <v>51</v>
@@ -5894,33 +5935,33 @@
         <v>37</v>
       </c>
       <c r="R29" t="s">
+        <v>347</v>
+      </c>
+      <c r="S29" t="s">
         <v>348</v>
       </c>
-      <c r="S29" t="s">
+      <c r="T29" t="s">
         <v>349</v>
       </c>
-      <c r="T29" t="s">
+      <c r="U29" t="s">
         <v>350</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>351</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>352</v>
       </c>
-      <c r="W29" t="s">
-        <v>353</v>
-      </c>
       <c r="X29" t="s">
-        <v>143</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>353</v>
+      </c>
+      <c r="B30" t="s">
         <v>354</v>
-      </c>
-      <c r="B30" t="s">
-        <v>355</v>
       </c>
       <c r="C30" t="s">
         <v>132</v>
@@ -5950,10 +5991,10 @@
         <v>31</v>
       </c>
       <c r="L30" t="s">
+        <v>355</v>
+      </c>
+      <c r="M30" t="s">
         <v>356</v>
-      </c>
-      <c r="M30" t="s">
-        <v>357</v>
       </c>
       <c r="N30" t="s">
         <v>111</v>
@@ -5968,33 +6009,33 @@
         <v>37</v>
       </c>
       <c r="R30" t="s">
+        <v>357</v>
+      </c>
+      <c r="S30" t="s">
         <v>358</v>
       </c>
-      <c r="S30" t="s">
+      <c r="T30" t="s">
         <v>359</v>
       </c>
-      <c r="T30" t="s">
+      <c r="U30" t="s">
         <v>360</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>361</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>362</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>363</v>
-      </c>
-      <c r="X30" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B31" t="s">
-        <v>143</v>
+        <v>1124</v>
       </c>
       <c r="C31" t="s">
         <v>26</v>
@@ -6024,13 +6065,13 @@
         <v>31</v>
       </c>
       <c r="L31" t="s">
+        <v>364</v>
+      </c>
+      <c r="M31" t="s">
         <v>365</v>
       </c>
-      <c r="M31" t="s">
-        <v>366</v>
-      </c>
       <c r="N31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O31" t="s">
         <v>51</v>
@@ -6042,33 +6083,33 @@
         <v>65</v>
       </c>
       <c r="R31" t="s">
+        <v>366</v>
+      </c>
+      <c r="S31" t="s">
         <v>367</v>
       </c>
-      <c r="S31" t="s">
+      <c r="T31" t="s">
         <v>368</v>
       </c>
-      <c r="T31" t="s">
+      <c r="U31" t="s">
+        <v>1119</v>
+      </c>
+      <c r="V31" t="s">
         <v>369</v>
       </c>
-      <c r="U31" t="s">
-        <v>1120</v>
-      </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>370</v>
       </c>
-      <c r="W31" t="s">
-        <v>371</v>
-      </c>
       <c r="X31" t="s">
-        <v>143</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>371</v>
+      </c>
+      <c r="B32" t="s">
         <v>372</v>
-      </c>
-      <c r="B32" t="s">
-        <v>373</v>
       </c>
       <c r="C32" t="s">
         <v>26</v>
@@ -6098,10 +6139,10 @@
         <v>31</v>
       </c>
       <c r="L32" t="s">
+        <v>373</v>
+      </c>
+      <c r="M32" t="s">
         <v>374</v>
-      </c>
-      <c r="M32" t="s">
-        <v>375</v>
       </c>
       <c r="N32" t="s">
         <v>98</v>
@@ -6110,39 +6151,39 @@
         <v>51</v>
       </c>
       <c r="P32" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q32" t="s">
         <v>325</v>
       </c>
-      <c r="Q32" t="s">
-        <v>326</v>
-      </c>
       <c r="R32" t="s">
+        <v>375</v>
+      </c>
+      <c r="S32" t="s">
         <v>376</v>
       </c>
-      <c r="S32" t="s">
+      <c r="T32" t="s">
         <v>377</v>
       </c>
-      <c r="T32" t="s">
+      <c r="U32" t="s">
         <v>378</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>379</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>380</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>381</v>
-      </c>
-      <c r="X32" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C33" t="s">
         <v>26</v>
@@ -6172,10 +6213,10 @@
         <v>31</v>
       </c>
       <c r="L33" t="s">
+        <v>383</v>
+      </c>
+      <c r="M33" t="s">
         <v>384</v>
-      </c>
-      <c r="M33" t="s">
-        <v>385</v>
       </c>
       <c r="N33" t="s">
         <v>63</v>
@@ -6190,33 +6231,33 @@
         <v>37</v>
       </c>
       <c r="R33" t="s">
+        <v>385</v>
+      </c>
+      <c r="S33" t="s">
         <v>386</v>
       </c>
-      <c r="S33" t="s">
+      <c r="T33" t="s">
         <v>387</v>
       </c>
-      <c r="T33" t="s">
+      <c r="U33" t="s">
         <v>388</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>389</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>390</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>391</v>
-      </c>
-      <c r="X33" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>392</v>
+      </c>
+      <c r="B34" t="s">
         <v>393</v>
-      </c>
-      <c r="B34" t="s">
-        <v>394</v>
       </c>
       <c r="C34" t="s">
         <v>26</v>
@@ -6246,10 +6287,10 @@
         <v>31</v>
       </c>
       <c r="L34" t="s">
+        <v>394</v>
+      </c>
+      <c r="M34" t="s">
         <v>395</v>
-      </c>
-      <c r="M34" t="s">
-        <v>396</v>
       </c>
       <c r="N34" t="s">
         <v>98</v>
@@ -6264,33 +6305,33 @@
         <v>65</v>
       </c>
       <c r="R34" t="s">
+        <v>396</v>
+      </c>
+      <c r="S34" t="s">
         <v>397</v>
       </c>
-      <c r="S34" t="s">
+      <c r="T34" t="s">
         <v>398</v>
       </c>
-      <c r="T34" t="s">
+      <c r="U34" t="s">
         <v>399</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>400</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>401</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>402</v>
-      </c>
-      <c r="X34" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B35" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C35" t="s">
         <v>26</v>
@@ -6299,7 +6340,7 @@
         <v>27</v>
       </c>
       <c r="E35" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F35" t="s">
         <v>28</v>
@@ -6320,13 +6361,13 @@
         <v>31</v>
       </c>
       <c r="L35" t="s">
+        <v>404</v>
+      </c>
+      <c r="M35" t="s">
         <v>405</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>406</v>
-      </c>
-      <c r="N35" t="s">
-        <v>407</v>
       </c>
       <c r="O35" t="s">
         <v>35</v>
@@ -6338,33 +6379,33 @@
         <v>65</v>
       </c>
       <c r="R35" t="s">
+        <v>407</v>
+      </c>
+      <c r="S35" t="s">
         <v>408</v>
       </c>
-      <c r="S35" t="s">
+      <c r="T35" t="s">
         <v>409</v>
       </c>
-      <c r="T35" t="s">
+      <c r="U35" t="s">
         <v>410</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>411</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>412</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>413</v>
-      </c>
-      <c r="X35" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>414</v>
+      </c>
+      <c r="B36" t="s">
         <v>415</v>
-      </c>
-      <c r="B36" t="s">
-        <v>416</v>
       </c>
       <c r="C36" t="s">
         <v>26</v>
@@ -6394,10 +6435,10 @@
         <v>31</v>
       </c>
       <c r="L36" t="s">
+        <v>416</v>
+      </c>
+      <c r="M36" t="s">
         <v>417</v>
-      </c>
-      <c r="M36" t="s">
-        <v>418</v>
       </c>
       <c r="N36" t="s">
         <v>34</v>
@@ -6412,33 +6453,33 @@
         <v>37</v>
       </c>
       <c r="R36" t="s">
+        <v>418</v>
+      </c>
+      <c r="S36" t="s">
         <v>419</v>
       </c>
-      <c r="S36" t="s">
+      <c r="T36" t="s">
         <v>420</v>
       </c>
-      <c r="T36" t="s">
+      <c r="U36" t="s">
         <v>421</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>422</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>423</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X36" t="s">
         <v>424</v>
-      </c>
-      <c r="X36" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B37" t="s">
-        <v>143</v>
+        <v>1126</v>
       </c>
       <c r="C37" t="s">
         <v>26</v>
@@ -6468,13 +6509,13 @@
         <v>31</v>
       </c>
       <c r="L37" t="s">
+        <v>425</v>
+      </c>
+      <c r="M37" t="s">
         <v>426</v>
       </c>
-      <c r="M37" t="s">
-        <v>427</v>
-      </c>
       <c r="N37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O37" t="s">
         <v>51</v>
@@ -6486,33 +6527,33 @@
         <v>37</v>
       </c>
       <c r="R37" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="S37" t="s">
+        <v>427</v>
+      </c>
+      <c r="T37" t="s">
         <v>428</v>
       </c>
-      <c r="T37" t="s">
+      <c r="U37" t="s">
         <v>429</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>430</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>431</v>
       </c>
-      <c r="W37" t="s">
-        <v>432</v>
-      </c>
       <c r="X37" t="s">
-        <v>143</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>432</v>
+      </c>
+      <c r="B38" t="s">
         <v>433</v>
-      </c>
-      <c r="B38" t="s">
-        <v>434</v>
       </c>
       <c r="C38" t="s">
         <v>132</v>
@@ -6542,10 +6583,10 @@
         <v>31</v>
       </c>
       <c r="L38" t="s">
+        <v>434</v>
+      </c>
+      <c r="M38" t="s">
         <v>435</v>
-      </c>
-      <c r="M38" t="s">
-        <v>436</v>
       </c>
       <c r="N38" t="s">
         <v>111</v>
@@ -6560,33 +6601,33 @@
         <v>37</v>
       </c>
       <c r="R38" t="s">
+        <v>436</v>
+      </c>
+      <c r="S38" t="s">
         <v>437</v>
       </c>
-      <c r="S38" t="s">
+      <c r="T38" t="s">
         <v>438</v>
       </c>
-      <c r="T38" t="s">
+      <c r="U38" t="s">
         <v>439</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>440</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>441</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X38" t="s">
         <v>442</v>
-      </c>
-      <c r="X38" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B39" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C39" t="s">
         <v>132</v>
@@ -6616,51 +6657,51 @@
         <v>31</v>
       </c>
       <c r="L39" t="s">
+        <v>444</v>
+      </c>
+      <c r="M39" t="s">
         <v>445</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>446</v>
-      </c>
-      <c r="N39" t="s">
-        <v>447</v>
       </c>
       <c r="O39" t="s">
         <v>35</v>
       </c>
       <c r="P39" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q39" t="s">
         <v>325</v>
       </c>
-      <c r="Q39" t="s">
-        <v>326</v>
-      </c>
       <c r="R39" t="s">
+        <v>447</v>
+      </c>
+      <c r="S39" t="s">
         <v>448</v>
       </c>
-      <c r="S39" t="s">
+      <c r="T39" t="s">
         <v>449</v>
       </c>
-      <c r="T39" t="s">
+      <c r="U39" t="s">
         <v>450</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>451</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>452</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X39" t="s">
         <v>453</v>
-      </c>
-      <c r="X39" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>454</v>
+      </c>
+      <c r="B40" t="s">
         <v>455</v>
-      </c>
-      <c r="B40" t="s">
-        <v>456</v>
       </c>
       <c r="C40" t="s">
         <v>132</v>
@@ -6690,13 +6731,13 @@
         <v>31</v>
       </c>
       <c r="L40" t="s">
+        <v>456</v>
+      </c>
+      <c r="M40" t="s">
         <v>457</v>
       </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
         <v>458</v>
-      </c>
-      <c r="N40" t="s">
-        <v>459</v>
       </c>
       <c r="O40" t="s">
         <v>112</v>
@@ -6708,33 +6749,33 @@
         <v>37</v>
       </c>
       <c r="R40" t="s">
+        <v>459</v>
+      </c>
+      <c r="S40" t="s">
         <v>460</v>
       </c>
-      <c r="S40" t="s">
+      <c r="T40" t="s">
         <v>461</v>
       </c>
-      <c r="T40" t="s">
+      <c r="U40" t="s">
         <v>462</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>463</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>464</v>
       </c>
-      <c r="W40" t="s">
+      <c r="X40" t="s">
         <v>465</v>
-      </c>
-      <c r="X40" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B41" t="s">
-        <v>143</v>
+        <v>1128</v>
       </c>
       <c r="C41" t="s">
         <v>132</v>
@@ -6764,13 +6805,13 @@
         <v>31</v>
       </c>
       <c r="L41" t="s">
+        <v>466</v>
+      </c>
+      <c r="M41" t="s">
         <v>467</v>
       </c>
-      <c r="M41" t="s">
-        <v>468</v>
-      </c>
       <c r="N41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O41" t="s">
         <v>51</v>
@@ -6782,36 +6823,36 @@
         <v>37</v>
       </c>
       <c r="R41" t="s">
+        <v>468</v>
+      </c>
+      <c r="S41" t="s">
         <v>469</v>
       </c>
-      <c r="S41" t="s">
+      <c r="T41" t="s">
         <v>470</v>
       </c>
-      <c r="T41" t="s">
+      <c r="U41" t="s">
         <v>471</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>472</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
         <v>473</v>
       </c>
-      <c r="W41" t="s">
-        <v>474</v>
-      </c>
       <c r="X41" t="s">
-        <v>143</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>474</v>
+      </c>
+      <c r="B42" t="s">
         <v>475</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>476</v>
-      </c>
-      <c r="C42" t="s">
-        <v>477</v>
       </c>
       <c r="D42" t="s">
         <v>27</v>
@@ -6838,10 +6879,10 @@
         <v>31</v>
       </c>
       <c r="L42" t="s">
+        <v>477</v>
+      </c>
+      <c r="M42" t="s">
         <v>478</v>
-      </c>
-      <c r="M42" t="s">
-        <v>479</v>
       </c>
       <c r="N42" t="s">
         <v>111</v>
@@ -6856,33 +6897,33 @@
         <v>37</v>
       </c>
       <c r="R42" t="s">
+        <v>479</v>
+      </c>
+      <c r="S42" t="s">
         <v>480</v>
       </c>
-      <c r="S42" t="s">
+      <c r="T42" t="s">
         <v>481</v>
       </c>
-      <c r="T42" t="s">
+      <c r="U42" t="s">
         <v>482</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>483</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>484</v>
       </c>
-      <c r="W42" t="s">
+      <c r="X42" t="s">
         <v>485</v>
-      </c>
-      <c r="X42" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B43" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C43" t="s">
         <v>26</v>
@@ -6912,10 +6953,10 @@
         <v>31</v>
       </c>
       <c r="L43" t="s">
+        <v>487</v>
+      </c>
+      <c r="M43" t="s">
         <v>488</v>
-      </c>
-      <c r="M43" t="s">
-        <v>489</v>
       </c>
       <c r="N43" t="s">
         <v>63</v>
@@ -6924,39 +6965,39 @@
         <v>35</v>
       </c>
       <c r="P43" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q43" t="s">
         <v>325</v>
       </c>
-      <c r="Q43" t="s">
-        <v>326</v>
-      </c>
       <c r="R43" t="s">
+        <v>489</v>
+      </c>
+      <c r="S43" t="s">
         <v>490</v>
       </c>
-      <c r="S43" t="s">
+      <c r="T43" t="s">
         <v>491</v>
       </c>
-      <c r="T43" t="s">
+      <c r="U43" t="s">
         <v>492</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>493</v>
       </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
         <v>494</v>
       </c>
-      <c r="W43" t="s">
+      <c r="X43" t="s">
         <v>495</v>
-      </c>
-      <c r="X43" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>496</v>
+      </c>
+      <c r="B44" t="s">
         <v>497</v>
-      </c>
-      <c r="B44" t="s">
-        <v>498</v>
       </c>
       <c r="C44" t="s">
         <v>132</v>
@@ -6986,13 +7027,13 @@
         <v>31</v>
       </c>
       <c r="L44" t="s">
+        <v>498</v>
+      </c>
+      <c r="M44" t="s">
         <v>499</v>
       </c>
-      <c r="M44" t="s">
-        <v>500</v>
-      </c>
       <c r="N44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O44" t="s">
         <v>112</v>
@@ -7004,33 +7045,33 @@
         <v>37</v>
       </c>
       <c r="R44" t="s">
+        <v>500</v>
+      </c>
+      <c r="S44" t="s">
         <v>501</v>
       </c>
-      <c r="S44" t="s">
+      <c r="T44" t="s">
         <v>502</v>
       </c>
-      <c r="T44" t="s">
+      <c r="U44" t="s">
         <v>503</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>504</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>505</v>
       </c>
-      <c r="W44" t="s">
+      <c r="X44" t="s">
         <v>506</v>
-      </c>
-      <c r="X44" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B45" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C45" t="s">
         <v>132</v>
@@ -7060,10 +7101,10 @@
         <v>31</v>
       </c>
       <c r="L45" t="s">
+        <v>508</v>
+      </c>
+      <c r="M45" t="s">
         <v>509</v>
-      </c>
-      <c r="M45" t="s">
-        <v>510</v>
       </c>
       <c r="N45" t="s">
         <v>34</v>
@@ -7078,33 +7119,33 @@
         <v>37</v>
       </c>
       <c r="R45" t="s">
+        <v>510</v>
+      </c>
+      <c r="S45" t="s">
         <v>511</v>
       </c>
-      <c r="S45" t="s">
+      <c r="T45" t="s">
         <v>512</v>
       </c>
-      <c r="T45" t="s">
+      <c r="U45" t="s">
         <v>513</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>514</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>515</v>
       </c>
-      <c r="W45" t="s">
+      <c r="X45" t="s">
         <v>516</v>
-      </c>
-      <c r="X45" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>517</v>
+      </c>
+      <c r="B46" t="s">
         <v>518</v>
-      </c>
-      <c r="B46" t="s">
-        <v>519</v>
       </c>
       <c r="C46" t="s">
         <v>132</v>
@@ -7134,13 +7175,13 @@
         <v>31</v>
       </c>
       <c r="L46" t="s">
+        <v>519</v>
+      </c>
+      <c r="M46" t="s">
         <v>520</v>
       </c>
-      <c r="M46" t="s">
-        <v>521</v>
-      </c>
       <c r="N46" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O46" t="s">
         <v>112</v>
@@ -7152,33 +7193,33 @@
         <v>37</v>
       </c>
       <c r="R46" t="s">
+        <v>521</v>
+      </c>
+      <c r="S46" t="s">
         <v>522</v>
       </c>
-      <c r="S46" t="s">
+      <c r="T46" t="s">
         <v>523</v>
       </c>
-      <c r="T46" t="s">
+      <c r="U46" t="s">
         <v>524</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>525</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>526</v>
       </c>
-      <c r="W46" t="s">
+      <c r="X46" t="s">
         <v>527</v>
-      </c>
-      <c r="X46" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B47" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C47" t="s">
         <v>132</v>
@@ -7208,13 +7249,13 @@
         <v>31</v>
       </c>
       <c r="L47" t="s">
+        <v>529</v>
+      </c>
+      <c r="M47" t="s">
         <v>530</v>
       </c>
-      <c r="M47" t="s">
+      <c r="N47" t="s">
         <v>531</v>
-      </c>
-      <c r="N47" t="s">
-        <v>532</v>
       </c>
       <c r="O47" t="s">
         <v>35</v>
@@ -7226,33 +7267,33 @@
         <v>37</v>
       </c>
       <c r="R47" t="s">
+        <v>532</v>
+      </c>
+      <c r="S47" t="s">
         <v>533</v>
       </c>
-      <c r="S47" t="s">
+      <c r="T47" t="s">
         <v>534</v>
       </c>
-      <c r="T47" t="s">
+      <c r="U47" t="s">
         <v>535</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>536</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>537</v>
       </c>
-      <c r="W47" t="s">
+      <c r="X47" t="s">
         <v>538</v>
-      </c>
-      <c r="X47" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>539</v>
+      </c>
+      <c r="B48" t="s">
         <v>540</v>
-      </c>
-      <c r="B48" t="s">
-        <v>541</v>
       </c>
       <c r="C48" t="s">
         <v>26</v>
@@ -7282,10 +7323,10 @@
         <v>31</v>
       </c>
       <c r="L48" t="s">
+        <v>541</v>
+      </c>
+      <c r="M48" t="s">
         <v>542</v>
-      </c>
-      <c r="M48" t="s">
-        <v>543</v>
       </c>
       <c r="N48" t="s">
         <v>98</v>
@@ -7300,33 +7341,33 @@
         <v>65</v>
       </c>
       <c r="R48" t="s">
+        <v>543</v>
+      </c>
+      <c r="S48" t="s">
         <v>544</v>
       </c>
-      <c r="S48" t="s">
+      <c r="T48" t="s">
         <v>545</v>
       </c>
-      <c r="T48" t="s">
+      <c r="U48" t="s">
         <v>546</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48" t="s">
         <v>547</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" t="s">
         <v>548</v>
       </c>
-      <c r="W48" t="s">
+      <c r="X48" t="s">
         <v>549</v>
-      </c>
-      <c r="X48" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B49" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C49" t="s">
         <v>132</v>
@@ -7356,13 +7397,13 @@
         <v>31</v>
       </c>
       <c r="L49" t="s">
+        <v>551</v>
+      </c>
+      <c r="M49" t="s">
         <v>552</v>
       </c>
-      <c r="M49" t="s">
-        <v>553</v>
-      </c>
       <c r="N49" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O49" t="s">
         <v>112</v>
@@ -7374,33 +7415,33 @@
         <v>37</v>
       </c>
       <c r="R49" t="s">
+        <v>553</v>
+      </c>
+      <c r="S49" t="s">
         <v>554</v>
       </c>
-      <c r="S49" t="s">
+      <c r="T49" t="s">
         <v>555</v>
       </c>
-      <c r="T49" t="s">
+      <c r="U49" t="s">
         <v>556</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49" t="s">
         <v>557</v>
       </c>
-      <c r="V49" t="s">
+      <c r="W49" t="s">
         <v>558</v>
       </c>
-      <c r="W49" t="s">
+      <c r="X49" t="s">
         <v>559</v>
-      </c>
-      <c r="X49" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>560</v>
+      </c>
+      <c r="B50" t="s">
         <v>561</v>
-      </c>
-      <c r="B50" t="s">
-        <v>562</v>
       </c>
       <c r="C50" t="s">
         <v>26</v>
@@ -7430,51 +7471,51 @@
         <v>31</v>
       </c>
       <c r="L50" t="s">
+        <v>562</v>
+      </c>
+      <c r="M50" t="s">
         <v>563</v>
       </c>
-      <c r="M50" t="s">
+      <c r="N50" t="s">
         <v>564</v>
-      </c>
-      <c r="N50" t="s">
-        <v>565</v>
       </c>
       <c r="O50" t="s">
         <v>112</v>
       </c>
       <c r="P50" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q50" t="s">
         <v>325</v>
       </c>
-      <c r="Q50" t="s">
-        <v>326</v>
-      </c>
       <c r="R50" t="s">
+        <v>565</v>
+      </c>
+      <c r="S50" t="s">
         <v>566</v>
       </c>
-      <c r="S50" t="s">
+      <c r="T50" t="s">
         <v>567</v>
       </c>
-      <c r="T50" t="s">
+      <c r="U50" t="s">
         <v>568</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>569</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>570</v>
       </c>
-      <c r="W50" t="s">
+      <c r="X50" t="s">
         <v>571</v>
-      </c>
-      <c r="X50" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B51" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C51" t="s">
         <v>26</v>
@@ -7504,51 +7545,51 @@
         <v>31</v>
       </c>
       <c r="L51" t="s">
+        <v>573</v>
+      </c>
+      <c r="M51" t="s">
         <v>574</v>
       </c>
-      <c r="M51" t="s">
+      <c r="N51" t="s">
         <v>575</v>
-      </c>
-      <c r="N51" t="s">
-        <v>576</v>
       </c>
       <c r="O51" t="s">
         <v>35</v>
       </c>
       <c r="P51" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q51" t="s">
         <v>325</v>
       </c>
-      <c r="Q51" t="s">
-        <v>326</v>
-      </c>
       <c r="R51" t="s">
+        <v>576</v>
+      </c>
+      <c r="S51" t="s">
         <v>577</v>
       </c>
-      <c r="S51" t="s">
+      <c r="T51" t="s">
         <v>578</v>
       </c>
-      <c r="T51" t="s">
+      <c r="U51" t="s">
         <v>579</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
         <v>580</v>
       </c>
-      <c r="V51" t="s">
+      <c r="W51" t="s">
         <v>581</v>
       </c>
-      <c r="W51" t="s">
+      <c r="X51" t="s">
         <v>582</v>
-      </c>
-      <c r="X51" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>583</v>
+      </c>
+      <c r="B52" t="s">
         <v>584</v>
-      </c>
-      <c r="B52" t="s">
-        <v>585</v>
       </c>
       <c r="C52" t="s">
         <v>132</v>
@@ -7578,13 +7619,13 @@
         <v>31</v>
       </c>
       <c r="L52" t="s">
+        <v>585</v>
+      </c>
+      <c r="M52" t="s">
         <v>586</v>
       </c>
-      <c r="M52" t="s">
-        <v>587</v>
-      </c>
       <c r="N52" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O52" t="s">
         <v>112</v>
@@ -7596,33 +7637,33 @@
         <v>37</v>
       </c>
       <c r="R52" t="s">
+        <v>587</v>
+      </c>
+      <c r="S52" t="s">
         <v>588</v>
       </c>
-      <c r="S52" t="s">
+      <c r="T52" t="s">
         <v>589</v>
       </c>
-      <c r="T52" t="s">
+      <c r="U52" t="s">
         <v>590</v>
       </c>
-      <c r="U52" t="s">
+      <c r="V52" t="s">
         <v>591</v>
       </c>
-      <c r="V52" t="s">
+      <c r="W52" t="s">
         <v>592</v>
       </c>
-      <c r="W52" t="s">
+      <c r="X52" t="s">
         <v>593</v>
-      </c>
-      <c r="X52" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B53" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C53" t="s">
         <v>26</v>
@@ -7652,10 +7693,10 @@
         <v>31</v>
       </c>
       <c r="L53" t="s">
+        <v>595</v>
+      </c>
+      <c r="M53" t="s">
         <v>596</v>
-      </c>
-      <c r="M53" t="s">
-        <v>597</v>
       </c>
       <c r="N53" t="s">
         <v>34</v>
@@ -7670,33 +7711,33 @@
         <v>37</v>
       </c>
       <c r="R53" t="s">
+        <v>597</v>
+      </c>
+      <c r="S53" t="s">
         <v>598</v>
       </c>
-      <c r="S53" t="s">
+      <c r="T53" t="s">
         <v>599</v>
       </c>
-      <c r="T53" t="s">
+      <c r="U53" t="s">
         <v>600</v>
       </c>
-      <c r="U53" t="s">
+      <c r="V53" t="s">
         <v>601</v>
       </c>
-      <c r="V53" t="s">
+      <c r="W53" t="s">
         <v>602</v>
       </c>
-      <c r="W53" t="s">
+      <c r="X53" t="s">
         <v>603</v>
-      </c>
-      <c r="X53" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>604</v>
+      </c>
+      <c r="B54" t="s">
         <v>605</v>
-      </c>
-      <c r="B54" t="s">
-        <v>606</v>
       </c>
       <c r="C54" t="s">
         <v>26</v>
@@ -7726,13 +7767,13 @@
         <v>31</v>
       </c>
       <c r="L54" t="s">
+        <v>606</v>
+      </c>
+      <c r="M54" t="s">
         <v>607</v>
       </c>
-      <c r="M54" t="s">
-        <v>608</v>
-      </c>
       <c r="N54" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O54" t="s">
         <v>51</v>
@@ -7744,33 +7785,33 @@
         <v>65</v>
       </c>
       <c r="R54" t="s">
+        <v>608</v>
+      </c>
+      <c r="S54" t="s">
         <v>609</v>
       </c>
-      <c r="S54" t="s">
+      <c r="T54" t="s">
         <v>610</v>
       </c>
-      <c r="T54" t="s">
+      <c r="U54" t="s">
         <v>611</v>
       </c>
-      <c r="U54" t="s">
+      <c r="V54" t="s">
         <v>612</v>
       </c>
-      <c r="V54" t="s">
+      <c r="W54" t="s">
         <v>613</v>
       </c>
-      <c r="W54" t="s">
+      <c r="X54" t="s">
         <v>614</v>
-      </c>
-      <c r="X54" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B55" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C55" t="s">
         <v>26</v>
@@ -7800,10 +7841,10 @@
         <v>31</v>
       </c>
       <c r="L55" t="s">
+        <v>616</v>
+      </c>
+      <c r="M55" t="s">
         <v>617</v>
-      </c>
-      <c r="M55" t="s">
-        <v>618</v>
       </c>
       <c r="N55" t="s">
         <v>34</v>
@@ -7812,39 +7853,39 @@
         <v>35</v>
       </c>
       <c r="P55" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q55" t="s">
         <v>325</v>
       </c>
-      <c r="Q55" t="s">
-        <v>326</v>
-      </c>
       <c r="R55" t="s">
+        <v>618</v>
+      </c>
+      <c r="S55" t="s">
         <v>619</v>
       </c>
-      <c r="S55" t="s">
+      <c r="T55" t="s">
         <v>620</v>
       </c>
-      <c r="T55" t="s">
+      <c r="U55" t="s">
         <v>621</v>
       </c>
-      <c r="U55" t="s">
+      <c r="V55" t="s">
         <v>622</v>
       </c>
-      <c r="V55" t="s">
+      <c r="W55" t="s">
         <v>623</v>
       </c>
-      <c r="W55" t="s">
+      <c r="X55" t="s">
         <v>624</v>
-      </c>
-      <c r="X55" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>625</v>
+      </c>
+      <c r="B56" t="s">
         <v>626</v>
-      </c>
-      <c r="B56" t="s">
-        <v>627</v>
       </c>
       <c r="C56" t="s">
         <v>26</v>
@@ -7874,10 +7915,10 @@
         <v>31</v>
       </c>
       <c r="L56" t="s">
+        <v>627</v>
+      </c>
+      <c r="M56" t="s">
         <v>628</v>
-      </c>
-      <c r="M56" t="s">
-        <v>629</v>
       </c>
       <c r="N56" t="s">
         <v>98</v>
@@ -7892,33 +7933,33 @@
         <v>65</v>
       </c>
       <c r="R56" t="s">
+        <v>629</v>
+      </c>
+      <c r="S56" t="s">
         <v>630</v>
       </c>
-      <c r="S56" t="s">
+      <c r="T56" t="s">
         <v>631</v>
       </c>
-      <c r="T56" t="s">
+      <c r="U56" t="s">
         <v>632</v>
       </c>
-      <c r="U56" t="s">
+      <c r="V56" t="s">
         <v>633</v>
       </c>
-      <c r="V56" t="s">
+      <c r="W56" t="s">
         <v>634</v>
       </c>
-      <c r="W56" t="s">
+      <c r="X56" t="s">
         <v>635</v>
-      </c>
-      <c r="X56" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B57" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C57" t="s">
         <v>132</v>
@@ -7948,10 +7989,10 @@
         <v>31</v>
       </c>
       <c r="L57" t="s">
+        <v>637</v>
+      </c>
+      <c r="M57" t="s">
         <v>638</v>
-      </c>
-      <c r="M57" t="s">
-        <v>639</v>
       </c>
       <c r="N57" t="s">
         <v>111</v>
@@ -7966,33 +8007,33 @@
         <v>37</v>
       </c>
       <c r="R57" t="s">
+        <v>639</v>
+      </c>
+      <c r="S57" t="s">
         <v>640</v>
       </c>
-      <c r="S57" t="s">
+      <c r="T57" t="s">
         <v>641</v>
       </c>
-      <c r="T57" t="s">
+      <c r="U57" t="s">
         <v>642</v>
       </c>
-      <c r="U57" t="s">
+      <c r="V57" t="s">
         <v>643</v>
       </c>
-      <c r="V57" t="s">
+      <c r="W57" t="s">
         <v>644</v>
       </c>
-      <c r="W57" t="s">
+      <c r="X57" t="s">
         <v>645</v>
-      </c>
-      <c r="X57" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>646</v>
+      </c>
+      <c r="B58" t="s">
         <v>647</v>
-      </c>
-      <c r="B58" t="s">
-        <v>648</v>
       </c>
       <c r="C58" t="s">
         <v>26</v>
@@ -8022,10 +8063,10 @@
         <v>31</v>
       </c>
       <c r="L58" t="s">
+        <v>648</v>
+      </c>
+      <c r="M58" t="s">
         <v>649</v>
-      </c>
-      <c r="M58" t="s">
-        <v>650</v>
       </c>
       <c r="N58" t="s">
         <v>111</v>
@@ -8040,33 +8081,33 @@
         <v>65</v>
       </c>
       <c r="R58" t="s">
+        <v>650</v>
+      </c>
+      <c r="S58" t="s">
         <v>651</v>
       </c>
-      <c r="S58" t="s">
+      <c r="T58" t="s">
         <v>652</v>
       </c>
-      <c r="T58" t="s">
+      <c r="U58" t="s">
         <v>653</v>
       </c>
-      <c r="U58" t="s">
+      <c r="V58" t="s">
         <v>654</v>
       </c>
-      <c r="V58" t="s">
+      <c r="W58" t="s">
         <v>655</v>
       </c>
-      <c r="W58" t="s">
+      <c r="X58" t="s">
         <v>656</v>
-      </c>
-      <c r="X58" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B59" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C59" t="s">
         <v>26</v>
@@ -8096,10 +8137,10 @@
         <v>31</v>
       </c>
       <c r="L59" t="s">
+        <v>658</v>
+      </c>
+      <c r="M59" t="s">
         <v>659</v>
-      </c>
-      <c r="M59" t="s">
-        <v>660</v>
       </c>
       <c r="N59" t="s">
         <v>34</v>
@@ -8114,33 +8155,33 @@
         <v>65</v>
       </c>
       <c r="R59" t="s">
+        <v>660</v>
+      </c>
+      <c r="S59" t="s">
         <v>661</v>
       </c>
-      <c r="S59" t="s">
+      <c r="T59" t="s">
         <v>662</v>
       </c>
-      <c r="T59" t="s">
+      <c r="U59" t="s">
         <v>663</v>
       </c>
-      <c r="U59" t="s">
+      <c r="V59" t="s">
         <v>664</v>
       </c>
-      <c r="V59" t="s">
+      <c r="W59" t="s">
         <v>665</v>
       </c>
-      <c r="W59" t="s">
+      <c r="X59" t="s">
         <v>666</v>
-      </c>
-      <c r="X59" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>667</v>
+      </c>
+      <c r="B60" t="s">
         <v>668</v>
-      </c>
-      <c r="B60" t="s">
-        <v>669</v>
       </c>
       <c r="C60" t="s">
         <v>132</v>
@@ -8170,16 +8211,16 @@
         <v>31</v>
       </c>
       <c r="L60" t="s">
+        <v>669</v>
+      </c>
+      <c r="M60" t="s">
         <v>670</v>
       </c>
-      <c r="M60" t="s">
+      <c r="N60" t="s">
+        <v>312</v>
+      </c>
+      <c r="O60" t="s">
         <v>671</v>
-      </c>
-      <c r="N60" t="s">
-        <v>313</v>
-      </c>
-      <c r="O60" t="s">
-        <v>672</v>
       </c>
       <c r="P60" t="s">
         <v>36</v>
@@ -8188,33 +8229,33 @@
         <v>37</v>
       </c>
       <c r="R60" t="s">
+        <v>672</v>
+      </c>
+      <c r="S60" t="s">
         <v>673</v>
       </c>
-      <c r="S60" t="s">
+      <c r="T60" t="s">
         <v>674</v>
       </c>
-      <c r="T60" t="s">
+      <c r="U60" t="s">
         <v>675</v>
       </c>
-      <c r="U60" t="s">
+      <c r="V60" t="s">
         <v>676</v>
       </c>
-      <c r="V60" t="s">
+      <c r="W60" t="s">
         <v>677</v>
       </c>
-      <c r="W60" t="s">
+      <c r="X60" t="s">
         <v>678</v>
-      </c>
-      <c r="X60" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B61" t="s">
-        <v>143</v>
+        <v>1130</v>
       </c>
       <c r="C61" t="s">
         <v>132</v>
@@ -8244,13 +8285,13 @@
         <v>31</v>
       </c>
       <c r="L61" t="s">
+        <v>679</v>
+      </c>
+      <c r="M61" t="s">
         <v>680</v>
       </c>
-      <c r="M61" t="s">
-        <v>681</v>
-      </c>
       <c r="N61" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O61" t="s">
         <v>51</v>
@@ -8262,33 +8303,33 @@
         <v>65</v>
       </c>
       <c r="R61" t="s">
+        <v>681</v>
+      </c>
+      <c r="S61" t="s">
         <v>682</v>
       </c>
-      <c r="S61" t="s">
+      <c r="T61" t="s">
         <v>683</v>
       </c>
-      <c r="T61" t="s">
+      <c r="U61" t="s">
         <v>684</v>
       </c>
-      <c r="U61" t="s">
+      <c r="V61" t="s">
         <v>685</v>
       </c>
-      <c r="V61" t="s">
+      <c r="W61" t="s">
         <v>686</v>
       </c>
-      <c r="W61" t="s">
-        <v>687</v>
-      </c>
       <c r="X61" t="s">
-        <v>143</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>687</v>
+      </c>
+      <c r="B62" t="s">
         <v>688</v>
-      </c>
-      <c r="B62" t="s">
-        <v>689</v>
       </c>
       <c r="C62" t="s">
         <v>132</v>
@@ -8315,16 +8356,16 @@
         <v>30</v>
       </c>
       <c r="K62" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L62" t="s">
+        <v>689</v>
+      </c>
+      <c r="M62" t="s">
         <v>690</v>
       </c>
-      <c r="M62" t="s">
+      <c r="N62" t="s">
         <v>691</v>
-      </c>
-      <c r="N62" t="s">
-        <v>692</v>
       </c>
       <c r="O62" t="s">
         <v>112</v>
@@ -8336,33 +8377,33 @@
         <v>37</v>
       </c>
       <c r="R62" t="s">
+        <v>692</v>
+      </c>
+      <c r="S62" t="s">
         <v>693</v>
       </c>
-      <c r="S62" t="s">
+      <c r="T62" t="s">
         <v>694</v>
       </c>
-      <c r="T62" t="s">
+      <c r="U62" t="s">
         <v>695</v>
       </c>
-      <c r="U62" t="s">
+      <c r="V62" t="s">
         <v>696</v>
       </c>
-      <c r="V62" t="s">
+      <c r="W62" t="s">
         <v>697</v>
       </c>
-      <c r="W62" t="s">
+      <c r="X62" t="s">
         <v>698</v>
-      </c>
-      <c r="X62" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B63" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C63" t="s">
         <v>132</v>
@@ -8389,54 +8430,54 @@
         <v>30</v>
       </c>
       <c r="K63" t="s">
+        <v>700</v>
+      </c>
+      <c r="L63" t="s">
         <v>701</v>
       </c>
-      <c r="L63" t="s">
+      <c r="M63" t="s">
         <v>702</v>
       </c>
-      <c r="M63" t="s">
+      <c r="N63" t="s">
         <v>703</v>
-      </c>
-      <c r="N63" t="s">
-        <v>704</v>
       </c>
       <c r="O63" t="s">
         <v>35</v>
       </c>
       <c r="P63" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q63" t="s">
         <v>325</v>
       </c>
-      <c r="Q63" t="s">
-        <v>326</v>
-      </c>
       <c r="R63" t="s">
+        <v>704</v>
+      </c>
+      <c r="S63" t="s">
         <v>705</v>
       </c>
-      <c r="S63" t="s">
+      <c r="T63" t="s">
         <v>706</v>
       </c>
-      <c r="T63" t="s">
+      <c r="U63" t="s">
         <v>707</v>
       </c>
-      <c r="U63" t="s">
+      <c r="V63" t="s">
         <v>708</v>
       </c>
-      <c r="V63" t="s">
+      <c r="W63" t="s">
         <v>709</v>
       </c>
-      <c r="W63" t="s">
+      <c r="X63" t="s">
         <v>710</v>
-      </c>
-      <c r="X63" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>711</v>
+      </c>
+      <c r="B64" t="s">
         <v>712</v>
-      </c>
-      <c r="B64" t="s">
-        <v>713</v>
       </c>
       <c r="C64" t="s">
         <v>132</v>
@@ -8466,10 +8507,10 @@
         <v>31</v>
       </c>
       <c r="L64" t="s">
+        <v>713</v>
+      </c>
+      <c r="M64" t="s">
         <v>714</v>
-      </c>
-      <c r="M64" t="s">
-        <v>715</v>
       </c>
       <c r="N64" t="s">
         <v>111</v>
@@ -8484,33 +8525,33 @@
         <v>37</v>
       </c>
       <c r="R64" t="s">
+        <v>715</v>
+      </c>
+      <c r="S64" t="s">
         <v>716</v>
       </c>
-      <c r="S64" t="s">
+      <c r="T64" t="s">
         <v>717</v>
       </c>
-      <c r="T64" t="s">
+      <c r="U64" t="s">
         <v>718</v>
       </c>
-      <c r="U64" t="s">
+      <c r="V64" t="s">
         <v>719</v>
       </c>
-      <c r="V64" t="s">
+      <c r="W64" t="s">
         <v>720</v>
       </c>
-      <c r="W64" t="s">
+      <c r="X64" t="s">
         <v>721</v>
-      </c>
-      <c r="X64" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B65" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C65" t="s">
         <v>132</v>
@@ -8540,13 +8581,13 @@
         <v>31</v>
       </c>
       <c r="L65" t="s">
+        <v>723</v>
+      </c>
+      <c r="M65" t="s">
         <v>724</v>
       </c>
-      <c r="M65" t="s">
-        <v>725</v>
-      </c>
       <c r="N65" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O65" t="s">
         <v>35</v>
@@ -8558,33 +8599,33 @@
         <v>37</v>
       </c>
       <c r="R65" t="s">
+        <v>725</v>
+      </c>
+      <c r="S65" t="s">
         <v>726</v>
       </c>
-      <c r="S65" t="s">
+      <c r="T65" t="s">
         <v>727</v>
       </c>
-      <c r="T65" t="s">
+      <c r="U65" t="s">
         <v>728</v>
       </c>
-      <c r="U65" t="s">
+      <c r="V65" t="s">
         <v>729</v>
       </c>
-      <c r="V65" t="s">
+      <c r="W65" t="s">
         <v>730</v>
       </c>
-      <c r="W65" t="s">
+      <c r="X65" t="s">
         <v>731</v>
-      </c>
-      <c r="X65" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>732</v>
+      </c>
+      <c r="B66" t="s">
         <v>733</v>
-      </c>
-      <c r="B66" t="s">
-        <v>734</v>
       </c>
       <c r="C66" t="s">
         <v>26</v>
@@ -8614,13 +8655,13 @@
         <v>31</v>
       </c>
       <c r="L66" t="s">
+        <v>734</v>
+      </c>
+      <c r="M66" t="s">
         <v>735</v>
       </c>
-      <c r="M66" t="s">
+      <c r="N66" t="s">
         <v>736</v>
-      </c>
-      <c r="N66" t="s">
-        <v>737</v>
       </c>
       <c r="O66" t="s">
         <v>112</v>
@@ -8632,33 +8673,33 @@
         <v>37</v>
       </c>
       <c r="R66" t="s">
+        <v>737</v>
+      </c>
+      <c r="S66" t="s">
         <v>738</v>
       </c>
-      <c r="S66" t="s">
+      <c r="T66" t="s">
         <v>739</v>
       </c>
-      <c r="T66" t="s">
+      <c r="U66" t="s">
         <v>740</v>
       </c>
-      <c r="U66" t="s">
+      <c r="V66" t="s">
         <v>741</v>
       </c>
-      <c r="V66" t="s">
+      <c r="W66" t="s">
         <v>742</v>
       </c>
-      <c r="W66" t="s">
+      <c r="X66" t="s">
         <v>743</v>
-      </c>
-      <c r="X66" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B67" t="s">
-        <v>143</v>
+        <v>1132</v>
       </c>
       <c r="C67" t="s">
         <v>132</v>
@@ -8685,16 +8726,16 @@
         <v>47</v>
       </c>
       <c r="K67" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L67" t="s">
+        <v>744</v>
+      </c>
+      <c r="M67" t="s">
         <v>745</v>
       </c>
-      <c r="M67" t="s">
-        <v>746</v>
-      </c>
       <c r="N67" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O67" t="s">
         <v>51</v>
@@ -8706,33 +8747,33 @@
         <v>37</v>
       </c>
       <c r="R67" t="s">
+        <v>746</v>
+      </c>
+      <c r="S67" t="s">
         <v>747</v>
       </c>
-      <c r="S67" t="s">
+      <c r="T67" t="s">
         <v>748</v>
       </c>
-      <c r="T67" t="s">
+      <c r="U67" t="s">
         <v>749</v>
       </c>
-      <c r="U67" t="s">
+      <c r="V67" t="s">
         <v>750</v>
       </c>
-      <c r="V67" t="s">
+      <c r="W67" t="s">
         <v>751</v>
       </c>
-      <c r="W67" t="s">
-        <v>752</v>
-      </c>
       <c r="X67" t="s">
-        <v>143</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>752</v>
+      </c>
+      <c r="B68" t="s">
         <v>753</v>
-      </c>
-      <c r="B68" t="s">
-        <v>754</v>
       </c>
       <c r="C68" t="s">
         <v>132</v>
@@ -8747,7 +8788,7 @@
         <v>28</v>
       </c>
       <c r="G68" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H68" t="s">
         <v>28</v>
@@ -8762,13 +8803,13 @@
         <v>31</v>
       </c>
       <c r="L68" t="s">
+        <v>754</v>
+      </c>
+      <c r="M68" t="s">
         <v>755</v>
       </c>
-      <c r="M68" t="s">
-        <v>756</v>
-      </c>
       <c r="N68" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O68" t="s">
         <v>51</v>
@@ -8780,33 +8821,33 @@
         <v>37</v>
       </c>
       <c r="R68" t="s">
+        <v>756</v>
+      </c>
+      <c r="S68" t="s">
         <v>757</v>
       </c>
-      <c r="S68" t="s">
+      <c r="T68" t="s">
         <v>758</v>
       </c>
-      <c r="T68" t="s">
+      <c r="U68" t="s">
         <v>759</v>
       </c>
-      <c r="U68" t="s">
+      <c r="V68" t="s">
         <v>760</v>
       </c>
-      <c r="V68" t="s">
+      <c r="W68" t="s">
         <v>761</v>
       </c>
-      <c r="W68" t="s">
+      <c r="X68" t="s">
         <v>762</v>
-      </c>
-      <c r="X68" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B69" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C69" t="s">
         <v>132</v>
@@ -8836,13 +8877,13 @@
         <v>31</v>
       </c>
       <c r="L69" t="s">
+        <v>764</v>
+      </c>
+      <c r="M69" t="s">
         <v>765</v>
       </c>
-      <c r="M69" t="s">
+      <c r="N69" t="s">
         <v>766</v>
-      </c>
-      <c r="N69" t="s">
-        <v>767</v>
       </c>
       <c r="O69" t="s">
         <v>112</v>
@@ -8854,33 +8895,33 @@
         <v>65</v>
       </c>
       <c r="R69" t="s">
+        <v>767</v>
+      </c>
+      <c r="S69" t="s">
         <v>768</v>
       </c>
-      <c r="S69" t="s">
+      <c r="T69" t="s">
         <v>769</v>
       </c>
-      <c r="T69" t="s">
+      <c r="U69" t="s">
         <v>770</v>
       </c>
-      <c r="U69" t="s">
+      <c r="V69" t="s">
         <v>771</v>
       </c>
-      <c r="V69" t="s">
+      <c r="W69" t="s">
         <v>772</v>
       </c>
-      <c r="W69" t="s">
+      <c r="X69" t="s">
         <v>773</v>
-      </c>
-      <c r="X69" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>774</v>
+      </c>
+      <c r="B70" t="s">
         <v>775</v>
-      </c>
-      <c r="B70" t="s">
-        <v>776</v>
       </c>
       <c r="C70" t="s">
         <v>26</v>
@@ -8910,10 +8951,10 @@
         <v>31</v>
       </c>
       <c r="L70" t="s">
+        <v>776</v>
+      </c>
+      <c r="M70" t="s">
         <v>777</v>
-      </c>
-      <c r="M70" t="s">
-        <v>778</v>
       </c>
       <c r="N70" t="s">
         <v>98</v>
@@ -8928,33 +8969,33 @@
         <v>65</v>
       </c>
       <c r="R70" t="s">
+        <v>778</v>
+      </c>
+      <c r="S70" t="s">
         <v>779</v>
       </c>
-      <c r="S70" t="s">
+      <c r="T70" t="s">
         <v>780</v>
       </c>
-      <c r="T70" t="s">
+      <c r="U70" t="s">
         <v>781</v>
       </c>
-      <c r="U70" t="s">
+      <c r="V70" t="s">
         <v>782</v>
       </c>
-      <c r="V70" t="s">
+      <c r="W70" t="s">
         <v>783</v>
       </c>
-      <c r="W70" t="s">
+      <c r="X70" t="s">
         <v>784</v>
-      </c>
-      <c r="X70" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B71" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C71" t="s">
         <v>132</v>
@@ -8984,13 +9025,13 @@
         <v>31</v>
       </c>
       <c r="L71" t="s">
+        <v>786</v>
+      </c>
+      <c r="M71" t="s">
         <v>787</v>
       </c>
-      <c r="M71" t="s">
-        <v>788</v>
-      </c>
       <c r="N71" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O71" t="s">
         <v>112</v>
@@ -9002,33 +9043,33 @@
         <v>37</v>
       </c>
       <c r="R71" t="s">
+        <v>788</v>
+      </c>
+      <c r="S71" t="s">
         <v>789</v>
       </c>
-      <c r="S71" t="s">
+      <c r="T71" t="s">
         <v>790</v>
       </c>
-      <c r="T71" t="s">
+      <c r="U71" t="s">
         <v>791</v>
       </c>
-      <c r="U71" t="s">
+      <c r="V71" t="s">
         <v>792</v>
       </c>
-      <c r="V71" t="s">
+      <c r="W71" t="s">
         <v>793</v>
       </c>
-      <c r="W71" t="s">
+      <c r="X71" t="s">
         <v>794</v>
-      </c>
-      <c r="X71" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>795</v>
+      </c>
+      <c r="B72" t="s">
         <v>796</v>
-      </c>
-      <c r="B72" t="s">
-        <v>797</v>
       </c>
       <c r="C72" t="s">
         <v>26</v>
@@ -9058,10 +9099,10 @@
         <v>31</v>
       </c>
       <c r="L72" t="s">
+        <v>797</v>
+      </c>
+      <c r="M72" t="s">
         <v>798</v>
-      </c>
-      <c r="M72" t="s">
-        <v>799</v>
       </c>
       <c r="N72" t="s">
         <v>34</v>
@@ -9076,33 +9117,33 @@
         <v>37</v>
       </c>
       <c r="R72" t="s">
+        <v>799</v>
+      </c>
+      <c r="S72" t="s">
         <v>800</v>
       </c>
-      <c r="S72" t="s">
+      <c r="T72" t="s">
         <v>801</v>
       </c>
-      <c r="T72" t="s">
+      <c r="U72" t="s">
         <v>802</v>
       </c>
-      <c r="U72" t="s">
+      <c r="V72" t="s">
         <v>803</v>
       </c>
-      <c r="V72" t="s">
+      <c r="W72" t="s">
         <v>804</v>
       </c>
-      <c r="W72" t="s">
+      <c r="X72" t="s">
         <v>805</v>
-      </c>
-      <c r="X72" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B73" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C73" t="s">
         <v>26</v>
@@ -9132,13 +9173,13 @@
         <v>31</v>
       </c>
       <c r="L73" t="s">
+        <v>807</v>
+      </c>
+      <c r="M73" t="s">
         <v>808</v>
       </c>
-      <c r="M73" t="s">
+      <c r="N73" t="s">
         <v>809</v>
-      </c>
-      <c r="N73" t="s">
-        <v>810</v>
       </c>
       <c r="O73" t="s">
         <v>35</v>
@@ -9150,33 +9191,33 @@
         <v>65</v>
       </c>
       <c r="R73" t="s">
+        <v>810</v>
+      </c>
+      <c r="S73" t="s">
         <v>811</v>
       </c>
-      <c r="S73" t="s">
+      <c r="T73" t="s">
         <v>812</v>
       </c>
-      <c r="T73" t="s">
+      <c r="U73" t="s">
         <v>813</v>
       </c>
-      <c r="U73" t="s">
+      <c r="V73" t="s">
         <v>814</v>
       </c>
-      <c r="V73" t="s">
+      <c r="W73" t="s">
         <v>815</v>
       </c>
-      <c r="W73" t="s">
+      <c r="X73" t="s">
         <v>816</v>
-      </c>
-      <c r="X73" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>817</v>
+      </c>
+      <c r="B74" t="s">
         <v>818</v>
-      </c>
-      <c r="B74" t="s">
-        <v>819</v>
       </c>
       <c r="C74" t="s">
         <v>132</v>
@@ -9206,51 +9247,51 @@
         <v>31</v>
       </c>
       <c r="L74" t="s">
+        <v>819</v>
+      </c>
+      <c r="M74" t="s">
         <v>820</v>
       </c>
-      <c r="M74" t="s">
+      <c r="N74" t="s">
         <v>821</v>
-      </c>
-      <c r="N74" t="s">
-        <v>822</v>
       </c>
       <c r="O74" t="s">
         <v>51</v>
       </c>
       <c r="P74" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q74" t="s">
         <v>325</v>
       </c>
-      <c r="Q74" t="s">
-        <v>326</v>
-      </c>
       <c r="R74" t="s">
+        <v>822</v>
+      </c>
+      <c r="S74" t="s">
         <v>823</v>
       </c>
-      <c r="S74" t="s">
+      <c r="T74" t="s">
         <v>824</v>
       </c>
-      <c r="T74" t="s">
+      <c r="U74" t="s">
         <v>825</v>
       </c>
-      <c r="U74" t="s">
+      <c r="V74" t="s">
         <v>826</v>
       </c>
-      <c r="V74" t="s">
+      <c r="W74" t="s">
         <v>827</v>
       </c>
-      <c r="W74" t="s">
+      <c r="X74" t="s">
         <v>828</v>
-      </c>
-      <c r="X74" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B75" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C75" t="s">
         <v>132</v>
@@ -9280,13 +9321,13 @@
         <v>31</v>
       </c>
       <c r="L75" t="s">
+        <v>830</v>
+      </c>
+      <c r="M75" t="s">
         <v>831</v>
       </c>
-      <c r="M75" t="s">
-        <v>832</v>
-      </c>
       <c r="N75" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O75" t="s">
         <v>35</v>
@@ -9298,33 +9339,33 @@
         <v>37</v>
       </c>
       <c r="R75" t="s">
+        <v>832</v>
+      </c>
+      <c r="S75" t="s">
         <v>833</v>
       </c>
-      <c r="S75" t="s">
+      <c r="T75" t="s">
         <v>834</v>
       </c>
-      <c r="T75" t="s">
+      <c r="U75" t="s">
         <v>835</v>
       </c>
-      <c r="U75" t="s">
+      <c r="V75" t="s">
         <v>836</v>
       </c>
-      <c r="V75" t="s">
+      <c r="W75" t="s">
         <v>837</v>
       </c>
-      <c r="W75" t="s">
+      <c r="X75" t="s">
         <v>838</v>
-      </c>
-      <c r="X75" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>839</v>
+      </c>
+      <c r="B76" t="s">
         <v>840</v>
-      </c>
-      <c r="B76" t="s">
-        <v>841</v>
       </c>
       <c r="C76" t="s">
         <v>26</v>
@@ -9354,10 +9395,10 @@
         <v>31</v>
       </c>
       <c r="L76" t="s">
+        <v>841</v>
+      </c>
+      <c r="M76" t="s">
         <v>842</v>
-      </c>
-      <c r="M76" t="s">
-        <v>843</v>
       </c>
       <c r="N76" t="s">
         <v>98</v>
@@ -9372,33 +9413,33 @@
         <v>65</v>
       </c>
       <c r="R76" t="s">
+        <v>843</v>
+      </c>
+      <c r="S76" t="s">
         <v>844</v>
       </c>
-      <c r="S76" t="s">
+      <c r="T76" t="s">
         <v>845</v>
       </c>
-      <c r="T76" t="s">
+      <c r="U76" t="s">
         <v>846</v>
       </c>
-      <c r="U76" t="s">
+      <c r="V76" t="s">
         <v>847</v>
       </c>
-      <c r="V76" t="s">
+      <c r="W76" t="s">
         <v>848</v>
       </c>
-      <c r="W76" t="s">
+      <c r="X76" t="s">
         <v>849</v>
-      </c>
-      <c r="X76" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B77" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C77" t="s">
         <v>132</v>
@@ -9428,13 +9469,13 @@
         <v>31</v>
       </c>
       <c r="L77" t="s">
+        <v>851</v>
+      </c>
+      <c r="M77" t="s">
         <v>852</v>
       </c>
-      <c r="M77" t="s">
-        <v>853</v>
-      </c>
       <c r="N77" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O77" t="s">
         <v>112</v>
@@ -9446,33 +9487,33 @@
         <v>65</v>
       </c>
       <c r="R77" t="s">
+        <v>853</v>
+      </c>
+      <c r="S77" t="s">
         <v>854</v>
       </c>
-      <c r="S77" t="s">
+      <c r="T77" t="s">
         <v>855</v>
       </c>
-      <c r="T77" t="s">
+      <c r="U77" t="s">
         <v>856</v>
       </c>
-      <c r="U77" t="s">
+      <c r="V77" t="s">
         <v>857</v>
       </c>
-      <c r="V77" t="s">
+      <c r="W77" t="s">
         <v>858</v>
       </c>
-      <c r="W77" t="s">
+      <c r="X77" t="s">
         <v>859</v>
-      </c>
-      <c r="X77" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>860</v>
+      </c>
+      <c r="B78" t="s">
         <v>861</v>
-      </c>
-      <c r="B78" t="s">
-        <v>862</v>
       </c>
       <c r="C78" t="s">
         <v>132</v>
@@ -9502,13 +9543,13 @@
         <v>31</v>
       </c>
       <c r="L78" t="s">
+        <v>862</v>
+      </c>
+      <c r="M78" t="s">
         <v>863</v>
       </c>
-      <c r="M78" t="s">
-        <v>864</v>
-      </c>
       <c r="N78" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O78" t="s">
         <v>112</v>
@@ -9520,33 +9561,33 @@
         <v>37</v>
       </c>
       <c r="R78" t="s">
+        <v>864</v>
+      </c>
+      <c r="S78" t="s">
         <v>865</v>
       </c>
-      <c r="S78" t="s">
+      <c r="T78" t="s">
         <v>866</v>
       </c>
-      <c r="T78" t="s">
+      <c r="U78" t="s">
         <v>867</v>
       </c>
-      <c r="U78" t="s">
+      <c r="V78" t="s">
         <v>868</v>
       </c>
-      <c r="V78" t="s">
+      <c r="W78" t="s">
         <v>869</v>
       </c>
-      <c r="W78" t="s">
+      <c r="X78" t="s">
         <v>870</v>
-      </c>
-      <c r="X78" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B79" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C79" t="s">
         <v>132</v>
@@ -9576,10 +9617,10 @@
         <v>31</v>
       </c>
       <c r="L79" t="s">
+        <v>872</v>
+      </c>
+      <c r="M79" t="s">
         <v>873</v>
-      </c>
-      <c r="M79" t="s">
-        <v>874</v>
       </c>
       <c r="N79" t="s">
         <v>63</v>
@@ -9594,33 +9635,33 @@
         <v>37</v>
       </c>
       <c r="R79" t="s">
+        <v>874</v>
+      </c>
+      <c r="S79" t="s">
         <v>875</v>
       </c>
-      <c r="S79" t="s">
+      <c r="T79" t="s">
         <v>876</v>
       </c>
-      <c r="T79" t="s">
+      <c r="U79" t="s">
         <v>877</v>
       </c>
-      <c r="U79" t="s">
+      <c r="V79" t="s">
         <v>878</v>
       </c>
-      <c r="V79" t="s">
+      <c r="W79" t="s">
         <v>879</v>
       </c>
-      <c r="W79" t="s">
+      <c r="X79" t="s">
         <v>880</v>
-      </c>
-      <c r="X79" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>881</v>
+      </c>
+      <c r="B80" t="s">
         <v>882</v>
-      </c>
-      <c r="B80" t="s">
-        <v>883</v>
       </c>
       <c r="C80" t="s">
         <v>26</v>
@@ -9647,16 +9688,16 @@
         <v>30</v>
       </c>
       <c r="K80" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="L80" t="s">
+        <v>883</v>
+      </c>
+      <c r="M80" t="s">
         <v>884</v>
       </c>
-      <c r="M80" t="s">
+      <c r="N80" t="s">
         <v>885</v>
-      </c>
-      <c r="N80" t="s">
-        <v>886</v>
       </c>
       <c r="O80" t="s">
         <v>51</v>
@@ -9668,33 +9709,33 @@
         <v>37</v>
       </c>
       <c r="R80" t="s">
+        <v>886</v>
+      </c>
+      <c r="S80" t="s">
         <v>887</v>
       </c>
-      <c r="S80" t="s">
+      <c r="T80" t="s">
         <v>888</v>
       </c>
-      <c r="T80" t="s">
+      <c r="U80" t="s">
         <v>889</v>
       </c>
-      <c r="U80" t="s">
+      <c r="V80" t="s">
         <v>890</v>
       </c>
-      <c r="V80" t="s">
+      <c r="W80" t="s">
         <v>891</v>
       </c>
-      <c r="W80" t="s">
+      <c r="X80" t="s">
         <v>892</v>
-      </c>
-      <c r="X80" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B81" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C81" t="s">
         <v>26</v>
@@ -9724,13 +9765,13 @@
         <v>31</v>
       </c>
       <c r="L81" t="s">
+        <v>894</v>
+      </c>
+      <c r="M81" t="s">
         <v>895</v>
       </c>
-      <c r="M81" t="s">
+      <c r="N81" t="s">
         <v>896</v>
-      </c>
-      <c r="N81" t="s">
-        <v>897</v>
       </c>
       <c r="O81" t="s">
         <v>35</v>
@@ -9742,33 +9783,33 @@
         <v>65</v>
       </c>
       <c r="R81" t="s">
+        <v>897</v>
+      </c>
+      <c r="S81" t="s">
         <v>898</v>
       </c>
-      <c r="S81" t="s">
+      <c r="T81" t="s">
         <v>899</v>
       </c>
-      <c r="T81" t="s">
+      <c r="U81" t="s">
         <v>900</v>
       </c>
-      <c r="U81" t="s">
+      <c r="V81" t="s">
         <v>901</v>
       </c>
-      <c r="V81" t="s">
+      <c r="W81" t="s">
         <v>902</v>
       </c>
-      <c r="W81" t="s">
+      <c r="X81" t="s">
         <v>903</v>
-      </c>
-      <c r="X81" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>904</v>
+      </c>
+      <c r="B82" t="s">
         <v>905</v>
-      </c>
-      <c r="B82" t="s">
-        <v>906</v>
       </c>
       <c r="C82" t="s">
         <v>26</v>
@@ -9798,51 +9839,51 @@
         <v>31</v>
       </c>
       <c r="L82" t="s">
+        <v>906</v>
+      </c>
+      <c r="M82" t="s">
         <v>907</v>
       </c>
-      <c r="M82" t="s">
-        <v>908</v>
-      </c>
       <c r="N82" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O82" t="s">
         <v>51</v>
       </c>
       <c r="P82" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q82" t="s">
         <v>325</v>
       </c>
-      <c r="Q82" t="s">
-        <v>326</v>
-      </c>
       <c r="R82" t="s">
+        <v>908</v>
+      </c>
+      <c r="S82" t="s">
         <v>909</v>
       </c>
-      <c r="S82" t="s">
+      <c r="T82" t="s">
         <v>910</v>
       </c>
-      <c r="T82" t="s">
+      <c r="U82" t="s">
         <v>911</v>
       </c>
-      <c r="U82" t="s">
+      <c r="V82" t="s">
         <v>912</v>
       </c>
-      <c r="V82" t="s">
+      <c r="W82" t="s">
         <v>913</v>
       </c>
-      <c r="W82" t="s">
+      <c r="X82" t="s">
         <v>914</v>
-      </c>
-      <c r="X82" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B83" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C83" t="s">
         <v>26</v>
@@ -9872,10 +9913,10 @@
         <v>31</v>
       </c>
       <c r="L83" t="s">
+        <v>916</v>
+      </c>
+      <c r="M83" t="s">
         <v>917</v>
-      </c>
-      <c r="M83" t="s">
-        <v>918</v>
       </c>
       <c r="N83" t="s">
         <v>34</v>
@@ -9890,33 +9931,33 @@
         <v>37</v>
       </c>
       <c r="R83" t="s">
+        <v>918</v>
+      </c>
+      <c r="S83" t="s">
         <v>919</v>
       </c>
-      <c r="S83" t="s">
+      <c r="T83" t="s">
         <v>920</v>
       </c>
-      <c r="T83" t="s">
+      <c r="U83" t="s">
         <v>921</v>
       </c>
-      <c r="U83" t="s">
+      <c r="V83" t="s">
         <v>922</v>
       </c>
-      <c r="V83" t="s">
+      <c r="W83" t="s">
         <v>923</v>
       </c>
-      <c r="W83" t="s">
+      <c r="X83" t="s">
         <v>924</v>
-      </c>
-      <c r="X83" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>925</v>
+      </c>
+      <c r="B84" t="s">
         <v>926</v>
-      </c>
-      <c r="B84" t="s">
-        <v>927</v>
       </c>
       <c r="C84" t="s">
         <v>26</v>
@@ -9946,51 +9987,51 @@
         <v>31</v>
       </c>
       <c r="L84" t="s">
+        <v>927</v>
+      </c>
+      <c r="M84" t="s">
         <v>928</v>
       </c>
-      <c r="M84" t="s">
-        <v>929</v>
-      </c>
       <c r="N84" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O84" t="s">
         <v>112</v>
       </c>
       <c r="P84" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q84" t="s">
         <v>325</v>
       </c>
-      <c r="Q84" t="s">
-        <v>326</v>
-      </c>
       <c r="R84" t="s">
+        <v>929</v>
+      </c>
+      <c r="S84" t="s">
         <v>930</v>
       </c>
-      <c r="S84" t="s">
+      <c r="T84" t="s">
         <v>931</v>
       </c>
-      <c r="T84" t="s">
+      <c r="U84" t="s">
         <v>932</v>
       </c>
-      <c r="U84" t="s">
+      <c r="V84" t="s">
         <v>933</v>
       </c>
-      <c r="V84" t="s">
+      <c r="W84" t="s">
         <v>934</v>
       </c>
-      <c r="W84" t="s">
+      <c r="X84" t="s">
         <v>935</v>
-      </c>
-      <c r="X84" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B85" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C85" t="s">
         <v>26</v>
@@ -10020,51 +10061,51 @@
         <v>31</v>
       </c>
       <c r="L85" t="s">
+        <v>937</v>
+      </c>
+      <c r="M85" t="s">
         <v>938</v>
       </c>
-      <c r="M85" t="s">
-        <v>939</v>
-      </c>
       <c r="N85" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="O85" t="s">
         <v>35</v>
       </c>
       <c r="P85" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q85" t="s">
         <v>325</v>
       </c>
-      <c r="Q85" t="s">
-        <v>326</v>
-      </c>
       <c r="R85" t="s">
+        <v>939</v>
+      </c>
+      <c r="S85" t="s">
         <v>940</v>
       </c>
-      <c r="S85" t="s">
+      <c r="T85" t="s">
         <v>941</v>
       </c>
-      <c r="T85" t="s">
+      <c r="U85" t="s">
         <v>942</v>
       </c>
-      <c r="U85" t="s">
+      <c r="V85" t="s">
         <v>943</v>
       </c>
-      <c r="V85" t="s">
+      <c r="W85" t="s">
         <v>944</v>
       </c>
-      <c r="W85" t="s">
+      <c r="X85" t="s">
         <v>945</v>
-      </c>
-      <c r="X85" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>946</v>
+      </c>
+      <c r="B86" t="s">
         <v>947</v>
-      </c>
-      <c r="B86" t="s">
-        <v>948</v>
       </c>
       <c r="C86" t="s">
         <v>26</v>
@@ -10091,13 +10132,13 @@
         <v>30</v>
       </c>
       <c r="K86" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L86" t="s">
+        <v>948</v>
+      </c>
+      <c r="M86" t="s">
         <v>949</v>
-      </c>
-      <c r="M86" t="s">
-        <v>950</v>
       </c>
       <c r="N86" t="s">
         <v>111</v>
@@ -10112,33 +10153,33 @@
         <v>65</v>
       </c>
       <c r="R86" t="s">
+        <v>950</v>
+      </c>
+      <c r="S86" t="s">
         <v>951</v>
       </c>
-      <c r="S86" t="s">
+      <c r="T86" t="s">
         <v>952</v>
       </c>
-      <c r="T86" t="s">
+      <c r="U86" t="s">
         <v>953</v>
       </c>
-      <c r="U86" t="s">
+      <c r="V86" t="s">
         <v>954</v>
       </c>
-      <c r="V86" t="s">
+      <c r="W86" t="s">
         <v>955</v>
       </c>
-      <c r="W86" t="s">
+      <c r="X86" t="s">
         <v>956</v>
-      </c>
-      <c r="X86" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B87" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C87" t="s">
         <v>26</v>
@@ -10150,7 +10191,7 @@
         <v>28</v>
       </c>
       <c r="F87" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G87" t="s">
         <v>28</v>
@@ -10168,13 +10209,13 @@
         <v>31</v>
       </c>
       <c r="L87" t="s">
+        <v>958</v>
+      </c>
+      <c r="M87" t="s">
         <v>959</v>
       </c>
-      <c r="M87" t="s">
+      <c r="N87" t="s">
         <v>960</v>
-      </c>
-      <c r="N87" t="s">
-        <v>961</v>
       </c>
       <c r="O87" t="s">
         <v>35</v>
@@ -10186,33 +10227,33 @@
         <v>37</v>
       </c>
       <c r="R87" t="s">
+        <v>961</v>
+      </c>
+      <c r="S87" t="s">
         <v>962</v>
       </c>
-      <c r="S87" t="s">
+      <c r="T87" t="s">
         <v>963</v>
       </c>
-      <c r="T87" t="s">
+      <c r="U87" t="s">
         <v>964</v>
       </c>
-      <c r="U87" t="s">
+      <c r="V87" t="s">
         <v>965</v>
       </c>
-      <c r="V87" t="s">
+      <c r="W87" t="s">
         <v>966</v>
       </c>
-      <c r="W87" t="s">
+      <c r="X87" t="s">
         <v>967</v>
-      </c>
-      <c r="X87" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>968</v>
+      </c>
+      <c r="B88" t="s">
         <v>969</v>
-      </c>
-      <c r="B88" t="s">
-        <v>970</v>
       </c>
       <c r="C88" t="s">
         <v>26</v>
@@ -10242,10 +10283,10 @@
         <v>31</v>
       </c>
       <c r="L88" t="s">
+        <v>970</v>
+      </c>
+      <c r="M88" t="s">
         <v>971</v>
-      </c>
-      <c r="M88" t="s">
-        <v>972</v>
       </c>
       <c r="N88" t="s">
         <v>98</v>
@@ -10260,33 +10301,33 @@
         <v>65</v>
       </c>
       <c r="R88" t="s">
+        <v>972</v>
+      </c>
+      <c r="S88" t="s">
         <v>973</v>
       </c>
-      <c r="S88" t="s">
+      <c r="T88" t="s">
         <v>974</v>
       </c>
-      <c r="T88" t="s">
+      <c r="U88" t="s">
         <v>975</v>
       </c>
-      <c r="U88" t="s">
+      <c r="V88" t="s">
         <v>976</v>
       </c>
-      <c r="V88" t="s">
+      <c r="W88" t="s">
         <v>977</v>
       </c>
-      <c r="W88" t="s">
+      <c r="X88" t="s">
         <v>978</v>
-      </c>
-      <c r="X88" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B89" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C89" t="s">
         <v>26</v>
@@ -10316,13 +10357,13 @@
         <v>31</v>
       </c>
       <c r="L89" t="s">
+        <v>980</v>
+      </c>
+      <c r="M89" t="s">
         <v>981</v>
       </c>
-      <c r="M89" t="s">
+      <c r="N89" t="s">
         <v>982</v>
-      </c>
-      <c r="N89" t="s">
-        <v>983</v>
       </c>
       <c r="O89" t="s">
         <v>112</v>
@@ -10334,33 +10375,33 @@
         <v>37</v>
       </c>
       <c r="R89" t="s">
+        <v>983</v>
+      </c>
+      <c r="S89" t="s">
         <v>984</v>
       </c>
-      <c r="S89" t="s">
+      <c r="T89" t="s">
         <v>985</v>
       </c>
-      <c r="T89" t="s">
+      <c r="U89" t="s">
         <v>986</v>
       </c>
-      <c r="U89" t="s">
+      <c r="V89" t="s">
         <v>987</v>
       </c>
-      <c r="V89" t="s">
+      <c r="W89" t="s">
         <v>988</v>
       </c>
-      <c r="W89" t="s">
+      <c r="X89" t="s">
         <v>989</v>
-      </c>
-      <c r="X89" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>990</v>
+      </c>
+      <c r="B90" t="s">
         <v>991</v>
-      </c>
-      <c r="B90" t="s">
-        <v>992</v>
       </c>
       <c r="C90" t="s">
         <v>132</v>
@@ -10390,10 +10431,10 @@
         <v>31</v>
       </c>
       <c r="L90" t="s">
+        <v>992</v>
+      </c>
+      <c r="M90" t="s">
         <v>993</v>
-      </c>
-      <c r="M90" t="s">
-        <v>994</v>
       </c>
       <c r="N90" t="s">
         <v>111</v>
@@ -10408,33 +10449,33 @@
         <v>65</v>
       </c>
       <c r="R90" t="s">
+        <v>994</v>
+      </c>
+      <c r="S90" t="s">
         <v>995</v>
       </c>
-      <c r="S90" t="s">
+      <c r="T90" t="s">
         <v>996</v>
       </c>
-      <c r="T90" t="s">
+      <c r="U90" t="s">
         <v>997</v>
       </c>
-      <c r="U90" t="s">
+      <c r="V90" t="s">
         <v>998</v>
       </c>
-      <c r="V90" t="s">
+      <c r="W90" t="s">
         <v>999</v>
       </c>
-      <c r="W90" t="s">
+      <c r="X90" t="s">
         <v>1000</v>
-      </c>
-      <c r="X90" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B91" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C91" t="s">
         <v>132</v>
@@ -10464,13 +10505,13 @@
         <v>31</v>
       </c>
       <c r="L91" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M91" t="s">
         <v>1003</v>
       </c>
-      <c r="M91" t="s">
-        <v>1004</v>
-      </c>
       <c r="N91" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O91" t="s">
         <v>35</v>
@@ -10482,33 +10523,33 @@
         <v>65</v>
       </c>
       <c r="R91" t="s">
+        <v>1004</v>
+      </c>
+      <c r="S91" t="s">
         <v>1005</v>
       </c>
-      <c r="S91" t="s">
+      <c r="T91" t="s">
         <v>1006</v>
       </c>
-      <c r="T91" t="s">
+      <c r="U91" t="s">
         <v>1007</v>
       </c>
-      <c r="U91" t="s">
+      <c r="V91" t="s">
         <v>1008</v>
       </c>
-      <c r="V91" t="s">
+      <c r="W91" t="s">
         <v>1009</v>
       </c>
-      <c r="W91" t="s">
+      <c r="X91" t="s">
         <v>1010</v>
-      </c>
-      <c r="X91" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B92" t="s">
         <v>1012</v>
-      </c>
-      <c r="B92" t="s">
-        <v>1013</v>
       </c>
       <c r="C92" t="s">
         <v>132</v>
@@ -10538,13 +10579,13 @@
         <v>31</v>
       </c>
       <c r="L92" t="s">
+        <v>1013</v>
+      </c>
+      <c r="M92" t="s">
         <v>1014</v>
       </c>
-      <c r="M92" t="s">
+      <c r="N92" t="s">
         <v>1015</v>
-      </c>
-      <c r="N92" t="s">
-        <v>1016</v>
       </c>
       <c r="O92" t="s">
         <v>51</v>
@@ -10556,36 +10597,36 @@
         <v>65</v>
       </c>
       <c r="R92" t="s">
+        <v>1016</v>
+      </c>
+      <c r="S92" t="s">
         <v>1017</v>
       </c>
-      <c r="S92" t="s">
+      <c r="T92" t="s">
         <v>1018</v>
       </c>
-      <c r="T92" t="s">
+      <c r="U92" t="s">
         <v>1019</v>
       </c>
-      <c r="U92" t="s">
+      <c r="V92" t="s">
         <v>1020</v>
       </c>
-      <c r="V92" t="s">
+      <c r="W92" t="s">
         <v>1021</v>
       </c>
-      <c r="W92" t="s">
+      <c r="X92" t="s">
         <v>1022</v>
-      </c>
-      <c r="X92" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B93" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C93" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D93" t="s">
         <v>27</v>
@@ -10612,13 +10653,13 @@
         <v>31</v>
       </c>
       <c r="L93" t="s">
+        <v>1024</v>
+      </c>
+      <c r="M93" t="s">
         <v>1025</v>
       </c>
-      <c r="M93" t="s">
-        <v>1026</v>
-      </c>
       <c r="N93" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O93" t="s">
         <v>112</v>
@@ -10630,33 +10671,33 @@
         <v>65</v>
       </c>
       <c r="R93" t="s">
+        <v>1026</v>
+      </c>
+      <c r="S93" t="s">
         <v>1027</v>
       </c>
-      <c r="S93" t="s">
+      <c r="T93" t="s">
         <v>1028</v>
       </c>
-      <c r="T93" t="s">
+      <c r="U93" t="s">
         <v>1029</v>
       </c>
-      <c r="U93" t="s">
+      <c r="V93" t="s">
         <v>1030</v>
       </c>
-      <c r="V93" t="s">
+      <c r="W93" t="s">
         <v>1031</v>
       </c>
-      <c r="W93" t="s">
+      <c r="X93" t="s">
         <v>1032</v>
-      </c>
-      <c r="X93" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B94" t="s">
         <v>1034</v>
-      </c>
-      <c r="B94" t="s">
-        <v>1035</v>
       </c>
       <c r="C94" t="s">
         <v>132</v>
@@ -10686,13 +10727,13 @@
         <v>31</v>
       </c>
       <c r="L94" t="s">
+        <v>1035</v>
+      </c>
+      <c r="M94" t="s">
         <v>1036</v>
       </c>
-      <c r="M94" t="s">
+      <c r="N94" t="s">
         <v>1037</v>
-      </c>
-      <c r="N94" t="s">
-        <v>1038</v>
       </c>
       <c r="O94" t="s">
         <v>51</v>
@@ -10704,33 +10745,33 @@
         <v>65</v>
       </c>
       <c r="R94" t="s">
+        <v>1038</v>
+      </c>
+      <c r="S94" t="s">
         <v>1039</v>
       </c>
-      <c r="S94" t="s">
+      <c r="T94" t="s">
         <v>1040</v>
       </c>
-      <c r="T94" t="s">
+      <c r="U94" t="s">
         <v>1041</v>
       </c>
-      <c r="U94" t="s">
+      <c r="V94" t="s">
         <v>1042</v>
       </c>
-      <c r="V94" t="s">
+      <c r="W94" t="s">
         <v>1043</v>
       </c>
-      <c r="W94" t="s">
+      <c r="X94" t="s">
         <v>1044</v>
-      </c>
-      <c r="X94" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B95" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C95" t="s">
         <v>132</v>
@@ -10760,13 +10801,13 @@
         <v>31</v>
       </c>
       <c r="L95" t="s">
+        <v>1046</v>
+      </c>
+      <c r="M95" t="s">
         <v>1047</v>
       </c>
-      <c r="M95" t="s">
-        <v>1048</v>
-      </c>
       <c r="N95" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O95" t="s">
         <v>112</v>
@@ -10778,33 +10819,33 @@
         <v>37</v>
       </c>
       <c r="R95" t="s">
+        <v>1048</v>
+      </c>
+      <c r="S95" t="s">
         <v>1049</v>
       </c>
-      <c r="S95" t="s">
+      <c r="T95" t="s">
         <v>1050</v>
       </c>
-      <c r="T95" t="s">
+      <c r="U95" t="s">
         <v>1051</v>
       </c>
-      <c r="U95" t="s">
+      <c r="V95" t="s">
         <v>1052</v>
       </c>
-      <c r="V95" t="s">
+      <c r="W95" t="s">
         <v>1053</v>
       </c>
-      <c r="W95" t="s">
+      <c r="X95" t="s">
         <v>1054</v>
-      </c>
-      <c r="X95" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B96" t="s">
         <v>1056</v>
-      </c>
-      <c r="B96" t="s">
-        <v>1057</v>
       </c>
       <c r="C96" t="s">
         <v>26</v>
@@ -10834,10 +10875,10 @@
         <v>31</v>
       </c>
       <c r="L96" t="s">
+        <v>1057</v>
+      </c>
+      <c r="M96" t="s">
         <v>1058</v>
-      </c>
-      <c r="M96" t="s">
-        <v>1059</v>
       </c>
       <c r="N96" t="s">
         <v>98</v>
@@ -10852,33 +10893,33 @@
         <v>37</v>
       </c>
       <c r="R96" t="s">
+        <v>1059</v>
+      </c>
+      <c r="S96" t="s">
         <v>1060</v>
       </c>
-      <c r="S96" t="s">
+      <c r="T96" t="s">
         <v>1061</v>
       </c>
-      <c r="T96" t="s">
+      <c r="U96" t="s">
         <v>1062</v>
       </c>
-      <c r="U96" t="s">
+      <c r="V96" t="s">
         <v>1063</v>
       </c>
-      <c r="V96" t="s">
+      <c r="W96" t="s">
         <v>1064</v>
       </c>
-      <c r="W96" t="s">
+      <c r="X96" t="s">
         <v>1065</v>
-      </c>
-      <c r="X96" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B97" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C97" t="s">
         <v>132</v>
@@ -10908,10 +10949,10 @@
         <v>31</v>
       </c>
       <c r="L97" t="s">
+        <v>1067</v>
+      </c>
+      <c r="M97" t="s">
         <v>1068</v>
-      </c>
-      <c r="M97" t="s">
-        <v>1069</v>
       </c>
       <c r="N97" t="s">
         <v>111</v>
@@ -10926,33 +10967,33 @@
         <v>37</v>
       </c>
       <c r="R97" t="s">
+        <v>1069</v>
+      </c>
+      <c r="S97" t="s">
         <v>1070</v>
       </c>
-      <c r="S97" t="s">
+      <c r="T97" t="s">
         <v>1071</v>
       </c>
-      <c r="T97" t="s">
+      <c r="U97" t="s">
         <v>1072</v>
       </c>
-      <c r="U97" t="s">
+      <c r="V97" t="s">
         <v>1073</v>
       </c>
-      <c r="V97" t="s">
+      <c r="W97" t="s">
         <v>1074</v>
       </c>
-      <c r="W97" t="s">
+      <c r="X97" t="s">
         <v>1075</v>
-      </c>
-      <c r="X97" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B98" t="s">
         <v>1077</v>
-      </c>
-      <c r="B98" t="s">
-        <v>1078</v>
       </c>
       <c r="C98" t="s">
         <v>132</v>
@@ -10982,13 +11023,13 @@
         <v>31</v>
       </c>
       <c r="L98" t="s">
+        <v>1078</v>
+      </c>
+      <c r="M98" t="s">
         <v>1079</v>
       </c>
-      <c r="M98" t="s">
-        <v>1080</v>
-      </c>
       <c r="N98" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O98" t="s">
         <v>112</v>
@@ -11000,33 +11041,33 @@
         <v>37</v>
       </c>
       <c r="R98" t="s">
+        <v>1080</v>
+      </c>
+      <c r="S98" t="s">
         <v>1081</v>
       </c>
-      <c r="S98" t="s">
+      <c r="T98" t="s">
         <v>1082</v>
       </c>
-      <c r="T98" t="s">
+      <c r="U98" t="s">
         <v>1083</v>
       </c>
-      <c r="U98" t="s">
+      <c r="V98" t="s">
         <v>1084</v>
       </c>
-      <c r="V98" t="s">
+      <c r="W98" t="s">
         <v>1085</v>
       </c>
-      <c r="W98" t="s">
+      <c r="X98" t="s">
         <v>1086</v>
-      </c>
-      <c r="X98" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B99" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C99" t="s">
         <v>26</v>
@@ -11056,10 +11097,10 @@
         <v>31</v>
       </c>
       <c r="L99" t="s">
+        <v>1088</v>
+      </c>
+      <c r="M99" t="s">
         <v>1089</v>
-      </c>
-      <c r="M99" t="s">
-        <v>1090</v>
       </c>
       <c r="N99" t="s">
         <v>34</v>
@@ -11074,33 +11115,33 @@
         <v>65</v>
       </c>
       <c r="R99" t="s">
+        <v>1090</v>
+      </c>
+      <c r="S99" t="s">
         <v>1091</v>
       </c>
-      <c r="S99" t="s">
+      <c r="T99" t="s">
         <v>1092</v>
       </c>
-      <c r="T99" t="s">
+      <c r="U99" t="s">
         <v>1093</v>
       </c>
-      <c r="U99" t="s">
+      <c r="V99" t="s">
         <v>1094</v>
       </c>
-      <c r="V99" t="s">
+      <c r="W99" t="s">
         <v>1095</v>
       </c>
-      <c r="W99" t="s">
+      <c r="X99" t="s">
         <v>1096</v>
-      </c>
-      <c r="X99" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B100" t="s">
         <v>1098</v>
-      </c>
-      <c r="B100" t="s">
-        <v>1099</v>
       </c>
       <c r="C100" t="s">
         <v>26</v>
@@ -11130,13 +11171,13 @@
         <v>31</v>
       </c>
       <c r="L100" t="s">
+        <v>1099</v>
+      </c>
+      <c r="M100" t="s">
         <v>1100</v>
       </c>
-      <c r="M100" t="s">
+      <c r="N100" t="s">
         <v>1101</v>
-      </c>
-      <c r="N100" t="s">
-        <v>1102</v>
       </c>
       <c r="O100" t="s">
         <v>112</v>
@@ -11148,33 +11189,33 @@
         <v>65</v>
       </c>
       <c r="R100" t="s">
+        <v>1102</v>
+      </c>
+      <c r="S100" t="s">
         <v>1103</v>
       </c>
-      <c r="S100" t="s">
+      <c r="T100" t="s">
         <v>1104</v>
       </c>
-      <c r="T100" t="s">
+      <c r="U100" t="s">
         <v>1105</v>
       </c>
-      <c r="U100" t="s">
+      <c r="V100" t="s">
         <v>1106</v>
       </c>
-      <c r="V100" t="s">
+      <c r="W100" t="s">
         <v>1107</v>
       </c>
-      <c r="W100" t="s">
+      <c r="X100" t="s">
         <v>1108</v>
-      </c>
-      <c r="X100" t="s">
-        <v>1109</v>
       </c>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B101" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C101" t="s">
         <v>26</v>
@@ -11204,10 +11245,10 @@
         <v>31</v>
       </c>
       <c r="L101" t="s">
+        <v>1110</v>
+      </c>
+      <c r="M101" t="s">
         <v>1111</v>
-      </c>
-      <c r="M101" t="s">
-        <v>1112</v>
       </c>
       <c r="N101" t="s">
         <v>63</v>
@@ -11222,25 +11263,25 @@
         <v>65</v>
       </c>
       <c r="R101" t="s">
+        <v>1112</v>
+      </c>
+      <c r="S101" t="s">
         <v>1113</v>
       </c>
-      <c r="S101" t="s">
+      <c r="T101" t="s">
         <v>1114</v>
       </c>
-      <c r="T101" t="s">
+      <c r="U101" t="s">
         <v>1115</v>
       </c>
-      <c r="U101" t="s">
+      <c r="V101" t="s">
         <v>1116</v>
       </c>
-      <c r="V101" t="s">
+      <c r="W101" t="s">
         <v>1117</v>
       </c>
-      <c r="W101" t="s">
+      <c r="X101" t="s">
         <v>1118</v>
-      </c>
-      <c r="X101" t="s">
-        <v>1119</v>
       </c>
     </row>
   </sheetData>
